--- a/data/LTLyra_药明.xlsx
+++ b/data/LTLyra_药明.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="转赞评" sheetId="1" r:id="rId1"/>
-    <sheet name="文章长度" sheetId="2" r:id="rId2"/>
+    <sheet name="文章长度" sheetId="1" r:id="rId1"/>
+    <sheet name="转赞评" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -476,7 +476,7 @@
         <v>2024/11/3</v>
       </c>
       <c r="D2" s="2">
-        <v>1473</v>
+        <v>7648</v>
       </c>
       <c r="E2" s="2" t="str">
         <v>两年生物医药研究，从仿制药，到创新药，到医疗器械，最后一站，是医药外包服务（CXO）。看下来，国内的仿制药，可以直接回避了；创新药，核心逻辑是出海；医疗器械，看了半天，没看出感觉，暂时放弃；CXO，看对眼了，买成了核心持仓。对CXO行业，直接上结论吧。Ø  CXO是周期成长股。2019~2021年中，市场主要演绎了行业的成长特征，2021年中~2023年底，市场主要演绎了行业的周期属性。2024年到目前为止，市场演绎的是行业地缘政治风险。但从现在开始，地缘政治风险逐渐褪去，市场会再次演绎行业的成长属性。这是我对整个行业定性的判断Ø  CXO行业的周期属性跟生物医药行业的投融资强度强相关。生物医药行业的需求本身是无限的，这来源于人类本身对生命健康的无限追求。但生物医药行业的研发支出，却和两个因素相关。第一，生物医药行业本身的发展，只有在新一代技术持续被开发出来/重磅产品持续放量的加持下，行业赚到钱，才会加大投入。第二，资本市场外围环境，最重要的是生物医药公司二级市场估值。只有二级市场估值上升，一级市场看到赚钱的机会，行业才会热起来，资金不断投入，更多项目立项。而CXO行业的收入，就是生物医药行业研发支出的一部分。Ø  CXO行业的成长属性，来源于三个方面。第一，生物医药公司研发支出的自然增长。第二，CXO渗透率的提升。第三，在强大的竞争优势加持下，全球CXO需求向国内转移的趋势。我们观察一下当前的产业趋势。从最开始的小分子化学药，到多肽药物，然后，出现了靶点的概念，各种靶向药，单抗开始爆发，当前正给整个制药行业贡献大量的利润。再后来，XDC，双抗药物开始出现，以及更前沿的基因疗法，研发投入驱动着整个医药行业在不断的向前发展。二级市场，上一轮周期顶部发生在2021年，美股XBI指数，恒生医疗保健指数，都在2021年见顶，然后经历了三年寒冬。生物医药行业的寒冬，制药公司都在缩减研发，反应到CXO，就是订单减少，竞争加剧。随着美国进入降息周期，生物医药行业开始复苏，2023年四季度，随着降息预期渐浓，XBI指数大幅反弹，伴随着一级市场投融资逐步恢复。各种biotech公司拿到钱，研发重新开始活跃，CXO行业新签订单开始持续回暖。这一点不是推测，而是已经从上市CXO公司的二、三季报持续得到验证。生物医药这个行业，天然就是逆集中的，能不能研发出好药，跟是不是大型公司没啥关系，你永远都不知道，下一款最牛逼的药物，现在正在哪个小公司的实验室里。这个行业的趋势就是，一大群小型biotech公司疯狂研发，最终成功的那几个，被MNC收购。而小型biotech，为了提高研发的效率，恰恰最需要CXO的帮助。所以，整个行业CXO的渗透率不断提升。回到中国的CXO行业，我的观点是，这个行业，是中国工程师红利在生物医药行业的完美映射。我们已经在消费电子，新能源制造，电动汽车等领域完美演绎过这个逻辑。并且，现在，在生物医药行业，这个逻辑也开始逐步呈现，比如说，视野所及，实体瘤领域，下一代免疫疗法2.0的基石产品，就是康方生物的AK112+AK104，这可能是碾压K药，O药的存在；火热的ADC领域，呈现出一超多强的局面，一超就是日本的第一三共，凭借DS8201的威风，横扫行业，但多强几乎全部是国内的医药公司，在这个领域，欧美已经落后。血液瘤领域，百济，亚盛，传奇的几个核心产品，将是未来市场最重要的玩家。但生物医药研发，毕竟风险巨大，存在赌石的风险，很难押注成功的公司。而这个问题在CXO行业就不存在，我帮你们疯狂内卷，不管你们最后谁成了，我都能受益。CXO行业，不单纯是一个成本和效率的生意。这跟消费电子的代工公司完全不是一回事。一款新药，从最开始的靶点选择，到药物发现，到临床前药理毒理分析，到IND申报，到生产工艺开发，到临床实验支持，再到NDA/BLA申报，最终商业化生产。最优秀的CXO可以提供一站式的服务支持。这绝不是一个简单的代工可以比拟。必须有足够的技术积累，以及足够多的高素质人才，才能玩起这个游戏。纵观全球，中国是最好土壤，工程师红利又一次完美的体现。永远不用担心这个产业会向相对落后的东南亚转移，也不用担心这个行业向不承认/保护药物专利的印度转移。成本比我低的东南亚不会玩，会玩的欧美成本比我高，效率比我低。所以，中国CXO行业的市占率不断提升。这个行业，另外一个特点就是，一旦形成规模，壁垒极高。我们都知道，生物医药研发，九死一生，十年时间，十亿美金，10%的成功概率，做出一款新药。在这种情况下，对制药公司来说，合作伙伴的可靠性就及其重要，没有任何制药公司，尤其是占据这个行业绝大多数，一款药定生死的biotech，会把订单交给一个没有优秀往绩证明的新玩家，因为试错的成本实在是太高了！只有可靠性还不够，还需要足够的高效，我们都知道，如果两家公司开发同一个靶点的药物，如果最终疗效类似，那么，先上市一年和后上市一年，差别是几倍的市场份额。这些行业特性，都决定了CXO行业会向头部玩家逐步集中，建立起口碑和规模优势的头部玩家，护城河及其深厚。说完行业，再说具体的公司。从类别上来说，CXO可以分为小分子化学药CXO和大分子生物药CXO。具体到公司上，这行业分为两类，一类是药明系，一类是其他。这个结论，不接受辩驳，竞争优势就是这么明显。从投资的角度，要么你不投这个行业，要么，药明系就是绕不过去的存在。药明系，现在三家上市公司，药明康德，药明生物，药明合联。药明康德专注小分子化学药；药明生物专注大分子生物药；药明合联是从药明生物分拆上市的，现在依旧是药明生物的并表子公司，专注生物药的一个领域，XDC。由于药明合联聚焦的领域相对较窄，虽然当前正在风口，增速很快，但毕竟生物医药技术变更频繁，很难说未来是不是就会突然失速，且考虑到合联估值较高，且被生物并表，所以，想投资合联，直接投资生物就好。所以，投资药明系，基本就是选择康德和生物的区别。选择药明生物的理由主要有两个。Ø  从细分行业的角度，生物药优于化学药。当前层出不穷的新技术，大多数集中于生物药领域。行业增速上，大分子生物药比小分子化学药快一倍，这决定了聚焦生物药的CXO赛道更长，增速更快；生物制药的技术壁垒高于化学药，这决定了，聚焦生物药的CXO，对客户来说，具有更大的粘性。举两个例子佐证这个观点，第一，国内的头部CXO公司，不管是药明康德，康龙化成，还是凯莱英，都是聚焦于小分子化学药，只有药明生物聚焦于大分子生物药。别家不是不想做，而是药明生物太强大，没法竞争。第二，就在不久前，还传出一个新闻，某MNC在行业头部玩家三星生物生产的一款药，在最后阶段，由于生产工艺的问题，被FDA驳回上市申请。行业头部玩家尚且如此，这行业，基本没有任何新进入者的可能，最后就是几个寡头垄断格局。Ø  两家企业的发展阶段不同，如果说药明康德现在是壮年阶段，药明生物则处在青年阶段。这可以从两家公司的收入结构看出。CRDMO，R（研究），D（开发），M（生产）三个阶段，药明康德，更大比例的收入来M端。一个M端订单的收入是远高于一个R和D端订单的。而大多数M端的订单，都是从R和D端一路做下来的。所以，从这个角度，康德趋向于成熟期的企业，而生物还在成长期。虽然现在康德踩在减肥药爆发的风口，但未来，生物药的增长势头更加持久。从行业和公司的角度，选定药明生物，再来看看这家公司的基本面。贴几张公司的PPT就能知道他的历史战绩有多强。7、8年来，收入，毛利，经调整净利润都是50%~70%级别的复合增长，除了牛逼，没有第二个词形容了。但2023年以来，增速在明显放缓甚至倒退。这里面主要是两个方面因素影响。其一，新冠收入退坡。第二，全球生物医药行业投融资冰冻。但这两个因素，都在成为过去式。按公司指引，今年下半年，净利润同比会有20%~30%的增长。牛逼的往期业绩不能证明未来的投资价值。我们分析一下这家公司未来的增长潜力。在我看来，这公司未来有四重增长潜力。第一，全球生物医药行业回暖带来的自然增长。这一点，从CXO上市公司的新增订单可以得到印证。第二，公司独特的CRDMO一条龙服务商业模式进行到当前阶段带来的增长。药明生物订单总量是从2016年开始大爆发，从103个项目增长到当前的742个，这里面，绝大多少项目都是从早期开始，按照医药开发的进度和规律，未来这几年，这些项目中必然有一定比例能够陆续成药，进而转化成药明生物的商业化订单。所以，在相同项目数的情况下，药明生物的收入和利润会明显增厚，其实，这就是药明康德现在表现出来的状态。这个观点，可以从下面这张图得到佐证。说明一下这张图隐含的意义，PPQ在生物医药行业中指的是工艺性能确认(Process Performance Qualification)。药品商业化之前需要做PPQ，通常在商业化的前两年开始。就是产品准备上市的时候，要做一个工艺可重复性的研究。把这个工艺做三次，做完三次，如果是非常吻合，就有一个上市前的审核数据资料。提交给监管机构批准完了以后，这个产品就能上市。实际上，PPQ就是M端订单的前置指标。目前药明生物体内做PPQ的转化率是95%以上，做完PPQ留在体内继续商业化生成的留存率也是 95%以上，之所以有这么高的粘性，是因为做完了PPQ以后，如果到别的厂商去做的话，要重新做PPQ，不光花时间，有的复杂的药物还需要重新做三期临床数据，所以基本不存在PPQ之后再更换厂商的情况，如果有，只能说明甲方感觉对方技术质量不达标，这也是大分子CDMO 企业高粘性的原因，甲方爸爸不缺钱，妄图通过低价抢单不可能的，这个行业格局已经确定，就是头部几个玩家瓜分蛋糕。第三，随着产能利用率提升，公司毛利率会进入恢复性增长阶段，进而带动净利润增长。看下面这张图，2020年开始，公司都处在大资本开支时期，包括2024~2026年，公司依然指引每年资本开支50亿。三、四百亿的资本开支，全部用来投资新增产能，尤其是海外新增产能。全球双厂战略，是未来应对地缘政治风险。对地缘政治不敏感的客户，国内产能支持，对地缘政治敏感的客户，海外产能支持。新产能开始达产，叠加新订单增速放缓，自然限制产能上升，毛利率下降。实际上，药明生物当前的毛利率，比正常情况是低4、5个百分点的，反映到经调整归母净利润上，其实就是降低了15%~20%的经调整归母净利润。公司指引，随着产能利用率提升，未来毛利润逐年上升1个百分点，直到正常。这张图透露出来更重要的一条信息是，尽管资本支出高企，但2022年开始，公司已经开始实现了正向自由现金流，并且，公司指引，今年保持正向自由现金流。那么未来，在新增订单及老订单自然向后期转化的支持下，随着新产能逐步投产，净利润和自由现金流会出现什么样的变化，相信非常容易判断。第四，药明生物并不是一家简单的外包服务公司，他是有药物开发能力的！这是他独特的增长动力（当然，这个能力药明康德也有）。2023年，药明生物与 GSK 就多款创新 TCE 双抗/多抗达成许可协议，GSK将获得基于药明生物专利技术平台开发的一款处于临床前阶段T细胞接合器 （TCE）双特异性抗体的独家许可权，并基于该平台选择至多三款其他 TCE双特异性/多特异性抗体。药明生物将获得 4000 万美元首付款和最高达14 亿美元的里程碑付款以及基于净销售额的销售分成。2024年，默沙东7亿美金首付，13亿美金总包收购同润生物一款TCE双抗，该双抗基于药明生物独家技术研发，药明生物将有权收到部分首付款，里程碑付款及未来药品上市后的销售分成。药明生物确认，5亿RMB的付款将计入公司下半年收入。这两个，只是披露出来，较大规模的BD合作，这些年，药明生物基于自己的研发平台，还有很多未披露的BD合作，随着药物研发进展，这些授权出去的分子，必然有能成药的，这意味着，药明生物将在整个药物的开发和商业化周期都获得收入。这些收入，将逐步计入报表，成为利润。经营上，这家公司是没有问题的。投资者一直担心，诟病的其实是两个非经营上的问题。第一，美国的生物安全法，对跟中国部分公司合作做出限制，药明生物在这个提案中被点名。这个问题，从今年年初开始发酵，是今年药明生物股价暴跌的元凶。到当前，这个问题，基本接近盖棺定论了。简单的说，美国的司法体系，想要立一部法，需要分别通过众议院和参议院投票，并且两院需要就投票版本达成一致，最终交总统签字成为法律。所谓的生物安全法，在9月10日众议院投票中，以306票支持81票反对44票弃权通过，支持率71%。拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。在投票过程中，发生了激烈的辩论。本来预期毫无悬念，轻松通过的法案，其实并不像大多数人预期的那样。在共和党控制的众议院，投票尚且争议巨大，那么，到了民主党控制的参议院，会发生什么？9月25日，参议院更新了法案内容，其实，甚至连法案的名字都改了，现在叫做“禁止外国公司获取美国公民遗传信息法案”，在这部法案中，药明生物被除名，并且，法案内容聚焦于基因相关业务。这部法案，目前还没有进入投票环节，预期今年12月投票。9月28日，花旗召开了一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，应该具有权威性。该专家明确了一点，目前的法案，限制范围不包含医保！重要的事情重复一遍，不包含医保！并且，10月10日，参议院对提案出了一份细节补充报告，明确了不包含医保，只限制联邦直接采购。至此，我认为生物安全法基本可以翻篇了。且不说参议院版本连法案名字都改了，药明生物完全没有基因相关业务，哪怕就是通过众议院的版本，不包含医保，影响也是完全可控可量化的，用药明生物管理层的说法，影响收入2%左右。这个事情，自始至终就是一场闹剧，就是大选年用来吸引眼球的噱头。CXO行业，本质是帮助制药企业开发新药的，整个过程中，新药的IP完全属于制药公司。者根本不存在中美产业竞争的问题。拿这个行业做文章，我实在想不出对美帝有啥好处。非要说好处的化，唯一能想到的就是促使产业回流？但药明生物，已经在美国建厂了，不是已经帮你实现产业回流了？禁掉中国的CXO，可能对传统MNC影响不大，但对占据整个行业绝大多数的biotech，就是毁灭性打击。对这些只有一、两条管线的小公司来说，可靠性和效率就是生命线。全世界，你让他们去哪找替代产能？这不是要他们的命吗？所以，参议院的版本，给了八年过渡期，但八年以后，全世界，哪个地方能冒出这么多高素质的生产力来？如果强行这么搞，结果只有一个，就是放慢全球创新药的开发进度，这对全人类，都不是一个好消息。我实在想不出，美国的政客，如何才能在巨大的阻力下，推进这么个费力不讨好的法案。如果真的想搞中国的CXO产业链，何必搞立法这么复杂的一套，向华为一样，直接禁掉不好吗？大选年的政治作秀，随着大选尘埃落定，可以休矣！第二，大股东高价大额减持的道德风险。不可否认，这个事情是客观存在的，但我实在不能理解，这有什么问题。上一轮，你们非要抱团赛道，把公司市值炒到5、6000亿，200倍PE，换任何一个理性的大股东，都会减持。何况，药明生物有自己的特殊性。当年，药明系从美股私有化退市，大股东是借了银团贷款的，实际上，他手里的股份，很大部分可以理解为银团的代持。你们把股价炒到一个匪夷所思的高度，大股东背后的金主要兑现，大股东除了减持，还能有啥办法？这根本就是合理的商业行为，跟其他无关。事实上，公司大股东李革，在药明生物任非执行董事，在公司一分钱薪酬都不领。我感觉，天天骂大股东高价减持的，就是上一轮无脑抱团赛道的傻缺，因为自己的愚蠢亏了钱在这里骂娘。这帮菜鸡在资本市场不亏钱，才是没有天理。最后，看一下估值。2023年，公司归母净利润34亿RMB，经调整归母净利润47亿RMB，这里面主要的区别，是12.7亿股权激励费用。公司指引，今年经调整归母净利润个位数增长，大概算50亿RMB吧。扣除股权激励费用，大概37、8亿RMB。当前公司市值620亿港币，即使把股权激励全部算作公司费用，也就16、7PE。实际上呢，把股权激励全部算作费用也不完全合理，比方说，公司2023年的股权激励计划，发行的基础是40多港币，但当前公司股价16港币左右，其实对股东的摊薄，是要打对折还多的。股东回报方面，2017年港股上市以来，公司从未有过现金分红。但是，公司分别于2021年12月，2022年9月，2023年6月，推出5亿美元，3亿美元和6亿美元的回购计划。前两次计划已足额回购注销，2023年的回购计划正在执行中。实际上，这公司的股东回报做得相当好了，上面讲过，公司一直在大额资本支出，伴随业绩高速增长，直到2022年，自由现金流才转正，但2021年底，公司就开始推出了大额回购计划。公司已经证明了不是嘴炮式回购，相信到今年底，2023年回购计划能足额进行。我们这么算，2022，2023，2024三年，公司合计归母净利润16.5亿美元，这三年，公司合计回购14亿美元，相当于净利润的85%拿出来回购股份了，这个股东回报力度，应该可以在全市场名列前茅了吧？事实上，药明生物大股东李革，在公司基本是甩手掌柜，公司的实际掌舵者是CEO陈智胜。陈博士2023年在公司领400万RMB的现金薪酬，9300万RMB的股权薪酬（当然，计价基础是40多港币/股），薪酬的绝大部分，都是股权。所以，这公司，管理层和小股东的股权一致性是非常好的。2024年中报，公司现金资产-有息负债为74亿RMB，处在净现金状态。考虑到自由现金流已经转正，随着未来业绩增长，资本支出降低会越来越多，公司是有足够的能力和意愿回报股东的。总结一下，我看到的药明生物，基本面上，公司是所在行业最强的存在，地缘政治风险正在褪去，行业周期向上，公司收入和利润处在新一轮增长的起点，大股东没有道德风险，管理层和小股东股权一致性甚好，公司资产负债表强壮，有意愿，也有能力做好股东回报。二级市场上，公司股价从最高点到今年8月跌去93%，但事实上，在整个过程中，公司基本面没有发生显著的负向变化，就是说，跌掉的全都是估值。当前，即使按最严格的算法，公司PE16、7倍（这还是短期股价反弹60%以后的估值），未来几年，展望持续20%~30%的增长。最后，我很喜欢这公司的愿景，“成为全球生物制药行业最高、最宽和最深的能力和技术平台，让天下没有难做的药，难治的病！”如果能够达成这个愿景，我相信，他绝不止当前678亿港币这点市值。当一个绝对的行业龙头，股价由于各种原因，跌残了以后，但基本面又出现强力正向驱动，经验和直觉告诉我，这意味着强劲的投资回报。特别感谢 @金融街行藏 ，本文借用了老兄很多观点。</v>
@@ -484,155 +484,155 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
-        <v>药明生物，周末发</v>
+        <v>回复@药明生物3年10倍: 赞同对药明生</v>
       </c>
       <c r="B3" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/310749770</v>
+        <v>https://xueqiu.com/1429872781/304714908</v>
       </c>
       <c r="C3" s="2" t="str">
-        <v>2024/11/1</v>
+        <v>2024/9/15</v>
       </c>
       <c r="D3" s="2">
-        <v>107</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2" t="str">
-        <v>药明生物，周末发</v>
+        <v>回复@药明生物3年10倍: 赞同对药明生物的判断//@药明生物3年10倍:回复@LTLyra:楼主非医药专业，有这么深刻的认知真是厉害呀。创新药的属性决定了，要么扶摇直上要么跌到泥土。可喜的是，目前的极端熊市、地缘局势、行业周期，让药明生物成了落难凤凰。但是，无论从目前漏斗订单（全球1/3在研生物药，超过一半被巨头收购的药物在公司做，足以证明技术水平），还是授权出去的45个双抗类药物的里程碑收入，都提供了未来五到十年巨大业绩支撑，目前的价格太难得了，中途无非是提案的事情颠簸一下，很快就修复了，向上十倍空间开启，坐稳扶好。</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <v>必须要增加康方和药明的仓位了......</v>
+        <v>回复@AI时间的玫瑰: 我是看好整个行业</v>
       </c>
       <c r="B4" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/304480511</v>
+        <v>https://xueqiu.com/1429872781/304135177</v>
       </c>
       <c r="C4" s="2" t="str">
-        <v>2024/9/12</v>
+        <v>2024/9/10</v>
       </c>
       <c r="D4" s="2">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>必须要增加康方和药明的仓位了.........</v>
+        <v>回复@AI时间的玫瑰: 我是看好整个行业里的优势公司。药明生物，是大分子生物药一条龙服务公司，具备全球独一挡的竞争力。只要整个行业需求增长，药明生物就是最受益的那个。当全行业最优质公司被特殊事件打击，如果这个事，不能致死致残，只是伤及皮毛......//@AI时间的玫瑰:回复@LTLyra:YM不是CXO吗。看好的是创新药吧</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>要不要吸取一直犹豫，导致康方生物仓位没买</v>
+        <v>回复@时光如镜: 如果对面的打压不是过于</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/304056544</v>
+        <v>https://xueqiu.com/1429872781/286165586</v>
       </c>
       <c r="C5" s="2" t="str">
-        <v>2024/9/9</v>
+        <v>2024/4/15</v>
       </c>
       <c r="D5" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>要不要吸取一直犹豫，导致康方生物仓位没买够的教训，提前把药明生物的仓位打上去？这是个问题，容我好好想想</v>
+        <v>回复@时光如镜: 如果对面的打压不是过于极端，这个位置的药明生物确实是难得的投资标的//@时光如镜:回复@范俊青:创新药投资难度太大了，不如 好把握</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
-        <v>多正常，我写篇药明生物基本面的贴，都给我</v>
+        <v>要不要吸取一直犹豫，导致康方生物仓位没买</v>
       </c>
       <c r="B6" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/311265272</v>
+        <v>https://xueqiu.com/1429872781/304056544</v>
       </c>
       <c r="C6" s="2" t="str">
-        <v>2024/11/5</v>
+        <v>2024/9/9</v>
       </c>
       <c r="D6" s="2">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="str">
-        <v>多正常，我写篇药明生物基本面的贴，都给我限流，这垃圾平台，自己作死</v>
+        <v>要不要吸取一直犹豫，导致康方生物仓位没买够的教训，提前把药明生物的仓位打上去？这是个问题，容我好好想想</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <v>药明生物</v>
+        <v>多正常，我写篇药明生物基本面的贴，都给我</v>
       </c>
       <c r="B7" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/305071405</v>
+        <v>https://xueqiu.com/1429872781/311265272</v>
       </c>
       <c r="C7" s="2" t="str">
-        <v>2024/9/20</v>
+        <v>2024/11/5</v>
       </c>
       <c r="D7" s="2">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="str">
-        <v>药明生物</v>
+        <v>多正常，我写篇药明生物基本面的贴，都给我限流，这垃圾平台，自己作死</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
-        <v>回复@药明生物3年10倍: 赞同对药明生</v>
+        <v>必须要增加康方和药明的仓位了......</v>
       </c>
       <c r="B8" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/304714908</v>
+        <v>https://xueqiu.com/1429872781/304480511</v>
       </c>
       <c r="C8" s="2" t="str">
-        <v>2024/9/15</v>
+        <v>2024/9/12</v>
       </c>
       <c r="D8" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>回复@药明生物3年10倍: 赞同对药明生物的判断//@药明生物3年10倍:回复@LTLyra:楼主非医药专业，有这么深刻的认知真是厉害呀。创新药的属性决定了，要么扶摇直上要么跌到泥土。可喜的是，目前的极端熊市、地缘局势、行业周期，让药明生物成了落难凤凰。但是，无论从目前漏斗订单（全球1/3在研生物药，超过一半被巨头收购的药物在公司做，足以证明技术水平），还是授权出去的45个双抗类药物的里程碑收入，都提供了未来五到十年巨大业绩支撑，目前的价格太难得了，中途无非是提案的事情颠簸一下，很快就修复了，向上十倍空间开启，坐稳扶好。</v>
+        <v>必须要增加康方和药明的仓位了.........</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="str">
-        <v>回复@AI时间的玫瑰: 我是看好整个行业</v>
+        <v>同加金斯瑞。 药明弹性更大，你牛逼。</v>
       </c>
       <c r="B9" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/304135177</v>
+        <v>https://xueqiu.com/1429872781/287272204</v>
       </c>
       <c r="C9" s="2" t="str">
-        <v>2024/9/10</v>
+        <v>2024/4/23</v>
       </c>
       <c r="D9" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="str">
-        <v>回复@AI时间的玫瑰: 我是看好整个行业里的优势公司。药明生物，是大分子生物药一条龙服务公司，具备全球独一挡的竞争力。只要整个行业需求增长，药明生物就是最受益的那个。当全行业最优质公司被特殊事件打击，如果这个事，不能致死致残，只是伤及皮毛......//@AI时间的玫瑰:回复@LTLyra:YM不是CXO吗。看好的是创新药吧</v>
+        <v>同加金斯瑞。 药明弹性更大，你牛逼。</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="str">
-        <v>同加金斯瑞。 药明弹性更大，你牛逼。</v>
+        <v>药明生物，周末发</v>
       </c>
       <c r="B10" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/287272204</v>
+        <v>https://xueqiu.com/1429872781/310749770</v>
       </c>
       <c r="C10" s="2" t="str">
-        <v>2024/4/23</v>
+        <v>2024/11/1</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="str">
-        <v>同加金斯瑞。 药明弹性更大，你牛逼。</v>
+        <v>药明生物，周末发</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
-        <v>回复@时光如镜: 如果对面的打压不是过于</v>
+        <v>药明生物</v>
       </c>
       <c r="B11" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/286165586</v>
+        <v>https://xueqiu.com/1429872781/305071405</v>
       </c>
       <c r="C11" s="2" t="str">
-        <v>2024/4/15</v>
+        <v>2024/9/20</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" s="2" t="str">
-        <v>回复@时光如镜: 如果对面的打压不是过于极端，这个位置的药明生物确实是难得的投资标的//@时光如镜:回复@范俊青:创新药投资难度太大了，不如 好把握</v>
+        <v>药明生物</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +684,7 @@
         <v>2024/11/3</v>
       </c>
       <c r="D2" s="2">
-        <v>7648</v>
+        <v>1475</v>
       </c>
       <c r="E2" s="2" t="str">
         <v>两年生物医药研究，从仿制药，到创新药，到医疗器械，最后一站，是医药外包服务（CXO）。看下来，国内的仿制药，可以直接回避了；创新药，核心逻辑是出海；医疗器械，看了半天，没看出感觉，暂时放弃；CXO，看对眼了，买成了核心持仓。对CXO行业，直接上结论吧。Ø  CXO是周期成长股。2019~2021年中，市场主要演绎了行业的成长特征，2021年中~2023年底，市场主要演绎了行业的周期属性。2024年到目前为止，市场演绎的是行业地缘政治风险。但从现在开始，地缘政治风险逐渐褪去，市场会再次演绎行业的成长属性。这是我对整个行业定性的判断Ø  CXO行业的周期属性跟生物医药行业的投融资强度强相关。生物医药行业的需求本身是无限的，这来源于人类本身对生命健康的无限追求。但生物医药行业的研发支出，却和两个因素相关。第一，生物医药行业本身的发展，只有在新一代技术持续被开发出来/重磅产品持续放量的加持下，行业赚到钱，才会加大投入。第二，资本市场外围环境，最重要的是生物医药公司二级市场估值。只有二级市场估值上升，一级市场看到赚钱的机会，行业才会热起来，资金不断投入，更多项目立项。而CXO行业的收入，就是生物医药行业研发支出的一部分。Ø  CXO行业的成长属性，来源于三个方面。第一，生物医药公司研发支出的自然增长。第二，CXO渗透率的提升。第三，在强大的竞争优势加持下，全球CXO需求向国内转移的趋势。我们观察一下当前的产业趋势。从最开始的小分子化学药，到多肽药物，然后，出现了靶点的概念，各种靶向药，单抗开始爆发，当前正给整个制药行业贡献大量的利润。再后来，XDC，双抗药物开始出现，以及更前沿的基因疗法，研发投入驱动着整个医药行业在不断的向前发展。二级市场，上一轮周期顶部发生在2021年，美股XBI指数，恒生医疗保健指数，都在2021年见顶，然后经历了三年寒冬。生物医药行业的寒冬，制药公司都在缩减研发，反应到CXO，就是订单减少，竞争加剧。随着美国进入降息周期，生物医药行业开始复苏，2023年四季度，随着降息预期渐浓，XBI指数大幅反弹，伴随着一级市场投融资逐步恢复。各种biotech公司拿到钱，研发重新开始活跃，CXO行业新签订单开始持续回暖。这一点不是推测，而是已经从上市CXO公司的二、三季报持续得到验证。生物医药这个行业，天然就是逆集中的，能不能研发出好药，跟是不是大型公司没啥关系，你永远都不知道，下一款最牛逼的药物，现在正在哪个小公司的实验室里。这个行业的趋势就是，一大群小型biotech公司疯狂研发，最终成功的那几个，被MNC收购。而小型biotech，为了提高研发的效率，恰恰最需要CXO的帮助。所以，整个行业CXO的渗透率不断提升。回到中国的CXO行业，我的观点是，这个行业，是中国工程师红利在生物医药行业的完美映射。我们已经在消费电子，新能源制造，电动汽车等领域完美演绎过这个逻辑。并且，现在，在生物医药行业，这个逻辑也开始逐步呈现，比如说，视野所及，实体瘤领域，下一代免疫疗法2.0的基石产品，就是康方生物的AK112+AK104，这可能是碾压K药，O药的存在；火热的ADC领域，呈现出一超多强的局面，一超就是日本的第一三共，凭借DS8201的威风，横扫行业，但多强几乎全部是国内的医药公司，在这个领域，欧美已经落后。血液瘤领域，百济，亚盛，传奇的几个核心产品，将是未来市场最重要的玩家。但生物医药研发，毕竟风险巨大，存在赌石的风险，很难押注成功的公司。而这个问题在CXO行业就不存在，我帮你们疯狂内卷，不管你们最后谁成了，我都能受益。CXO行业，不单纯是一个成本和效率的生意。这跟消费电子的代工公司完全不是一回事。一款新药，从最开始的靶点选择，到药物发现，到临床前药理毒理分析，到IND申报，到生产工艺开发，到临床实验支持，再到NDA/BLA申报，最终商业化生产。最优秀的CXO可以提供一站式的服务支持。这绝不是一个简单的代工可以比拟。必须有足够的技术积累，以及足够多的高素质人才，才能玩起这个游戏。纵观全球，中国是最好土壤，工程师红利又一次完美的体现。永远不用担心这个产业会向相对落后的东南亚转移，也不用担心这个行业向不承认/保护药物专利的印度转移。成本比我低的东南亚不会玩，会玩的欧美成本比我高，效率比我低。所以，中国CXO行业的市占率不断提升。这个行业，另外一个特点就是，一旦形成规模，壁垒极高。我们都知道，生物医药研发，九死一生，十年时间，十亿美金，10%的成功概率，做出一款新药。在这种情况下，对制药公司来说，合作伙伴的可靠性就及其重要，没有任何制药公司，尤其是占据这个行业绝大多数，一款药定生死的biotech，会把订单交给一个没有优秀往绩证明的新玩家，因为试错的成本实在是太高了！只有可靠性还不够，还需要足够的高效，我们都知道，如果两家公司开发同一个靶点的药物，如果最终疗效类似，那么，先上市一年和后上市一年，差别是几倍的市场份额。这些行业特性，都决定了CXO行业会向头部玩家逐步集中，建立起口碑和规模优势的头部玩家，护城河及其深厚。说完行业，再说具体的公司。从类别上来说，CXO可以分为小分子化学药CXO和大分子生物药CXO。具体到公司上，这行业分为两类，一类是药明系，一类是其他。这个结论，不接受辩驳，竞争优势就是这么明显。从投资的角度，要么你不投这个行业，要么，药明系就是绕不过去的存在。药明系，现在三家上市公司，药明康德，药明生物，药明合联。药明康德专注小分子化学药；药明生物专注大分子生物药；药明合联是从药明生物分拆上市的，现在依旧是药明生物的并表子公司，专注生物药的一个领域，XDC。由于药明合联聚焦的领域相对较窄，虽然当前正在风口，增速很快，但毕竟生物医药技术变更频繁，很难说未来是不是就会突然失速，且考虑到合联估值较高，且被生物并表，所以，想投资合联，直接投资生物就好。所以，投资药明系，基本就是选择康德和生物的区别。选择药明生物的理由主要有两个。Ø  从细分行业的角度，生物药优于化学药。当前层出不穷的新技术，大多数集中于生物药领域。行业增速上，大分子生物药比小分子化学药快一倍，这决定了聚焦生物药的CXO赛道更长，增速更快；生物制药的技术壁垒高于化学药，这决定了，聚焦生物药的CXO，对客户来说，具有更大的粘性。举两个例子佐证这个观点，第一，国内的头部CXO公司，不管是药明康德，康龙化成，还是凯莱英，都是聚焦于小分子化学药，只有药明生物聚焦于大分子生物药。别家不是不想做，而是药明生物太强大，没法竞争。第二，就在不久前，还传出一个新闻，某MNC在行业头部玩家三星生物生产的一款药，在最后阶段，由于生产工艺的问题，被FDA驳回上市申请。行业头部玩家尚且如此，这行业，基本没有任何新进入者的可能，最后就是几个寡头垄断格局。Ø  两家企业的发展阶段不同，如果说药明康德现在是壮年阶段，药明生物则处在青年阶段。这可以从两家公司的收入结构看出。CRDMO，R（研究），D（开发），M（生产）三个阶段，药明康德，更大比例的收入来M端。一个M端订单的收入是远高于一个R和D端订单的。而大多数M端的订单，都是从R和D端一路做下来的。所以，从这个角度，康德趋向于成熟期的企业，而生物还在成长期。虽然现在康德踩在减肥药爆发的风口，但未来，生物药的增长势头更加持久。从行业和公司的角度，选定药明生物，再来看看这家公司的基本面。贴几张公司的PPT就能知道他的历史战绩有多强。7、8年来，收入，毛利，经调整净利润都是50%~70%级别的复合增长，除了牛逼，没有第二个词形容了。但2023年以来，增速在明显放缓甚至倒退。这里面主要是两个方面因素影响。其一，新冠收入退坡。第二，全球生物医药行业投融资冰冻。但这两个因素，都在成为过去式。按公司指引，今年下半年，净利润同比会有20%~30%的增长。牛逼的往期业绩不能证明未来的投资价值。我们分析一下这家公司未来的增长潜力。在我看来，这公司未来有四重增长潜力。第一，全球生物医药行业回暖带来的自然增长。这一点，从CXO上市公司的新增订单可以得到印证。第二，公司独特的CRDMO一条龙服务商业模式进行到当前阶段带来的增长。药明生物订单总量是从2016年开始大爆发，从103个项目增长到当前的742个，这里面，绝大多少项目都是从早期开始，按照医药开发的进度和规律，未来这几年，这些项目中必然有一定比例能够陆续成药，进而转化成药明生物的商业化订单。所以，在相同项目数的情况下，药明生物的收入和利润会明显增厚，其实，这就是药明康德现在表现出来的状态。这个观点，可以从下面这张图得到佐证。说明一下这张图隐含的意义，PPQ在生物医药行业中指的是工艺性能确认(Process Performance Qualification)。药品商业化之前需要做PPQ，通常在商业化的前两年开始。就是产品准备上市的时候，要做一个工艺可重复性的研究。把这个工艺做三次，做完三次，如果是非常吻合，就有一个上市前的审核数据资料。提交给监管机构批准完了以后，这个产品就能上市。实际上，PPQ就是M端订单的前置指标。目前药明生物体内做PPQ的转化率是95%以上，做完PPQ留在体内继续商业化生成的留存率也是 95%以上，之所以有这么高的粘性，是因为做完了PPQ以后，如果到别的厂商去做的话，要重新做PPQ，不光花时间，有的复杂的药物还需要重新做三期临床数据，所以基本不存在PPQ之后再更换厂商的情况，如果有，只能说明甲方感觉对方技术质量不达标，这也是大分子CDMO 企业高粘性的原因，甲方爸爸不缺钱，妄图通过低价抢单不可能的，这个行业格局已经确定，就是头部几个玩家瓜分蛋糕。第三，随着产能利用率提升，公司毛利率会进入恢复性增长阶段，进而带动净利润增长。看下面这张图，2020年开始，公司都处在大资本开支时期，包括2024~2026年，公司依然指引每年资本开支50亿。三、四百亿的资本开支，全部用来投资新增产能，尤其是海外新增产能。全球双厂战略，是未来应对地缘政治风险。对地缘政治不敏感的客户，国内产能支持，对地缘政治敏感的客户，海外产能支持。新产能开始达产，叠加新订单增速放缓，自然限制产能上升，毛利率下降。实际上，药明生物当前的毛利率，比正常情况是低4、5个百分点的，反映到经调整归母净利润上，其实就是降低了15%~20%的经调整归母净利润。公司指引，随着产能利用率提升，未来毛利润逐年上升1个百分点，直到正常。这张图透露出来更重要的一条信息是，尽管资本支出高企，但2022年开始，公司已经开始实现了正向自由现金流，并且，公司指引，今年保持正向自由现金流。那么未来，在新增订单及老订单自然向后期转化的支持下，随着新产能逐步投产，净利润和自由现金流会出现什么样的变化，相信非常容易判断。第四，药明生物并不是一家简单的外包服务公司，他是有药物开发能力的！这是他独特的增长动力（当然，这个能力药明康德也有）。2023年，药明生物与 GSK 就多款创新 TCE 双抗/多抗达成许可协议，GSK将获得基于药明生物专利技术平台开发的一款处于临床前阶段T细胞接合器 （TCE）双特异性抗体的独家许可权，并基于该平台选择至多三款其他 TCE双特异性/多特异性抗体。药明生物将获得 4000 万美元首付款和最高达14 亿美元的里程碑付款以及基于净销售额的销售分成。2024年，默沙东7亿美金首付，13亿美金总包收购同润生物一款TCE双抗，该双抗基于药明生物独家技术研发，药明生物将有权收到部分首付款，里程碑付款及未来药品上市后的销售分成。药明生物确认，5亿RMB的付款将计入公司下半年收入。这两个，只是披露出来，较大规模的BD合作，这些年，药明生物基于自己的研发平台，还有很多未披露的BD合作，随着药物研发进展，这些授权出去的分子，必然有能成药的，这意味着，药明生物将在整个药物的开发和商业化周期都获得收入。这些收入，将逐步计入报表，成为利润。经营上，这家公司是没有问题的。投资者一直担心，诟病的其实是两个非经营上的问题。第一，美国的生物安全法，对跟中国部分公司合作做出限制，药明生物在这个提案中被点名。这个问题，从今年年初开始发酵，是今年药明生物股价暴跌的元凶。到当前，这个问题，基本接近盖棺定论了。简单的说，美国的司法体系，想要立一部法，需要分别通过众议院和参议院投票，并且两院需要就投票版本达成一致，最终交总统签字成为法律。所谓的生物安全法，在9月10日众议院投票中，以306票支持81票反对44票弃权通过，支持率71%。拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。在投票过程中，发生了激烈的辩论。本来预期毫无悬念，轻松通过的法案，其实并不像大多数人预期的那样。在共和党控制的众议院，投票尚且争议巨大，那么，到了民主党控制的参议院，会发生什么？9月25日，参议院更新了法案内容，其实，甚至连法案的名字都改了，现在叫做“禁止外国公司获取美国公民遗传信息法案”，在这部法案中，药明生物被除名，并且，法案内容聚焦于基因相关业务。这部法案，目前还没有进入投票环节，预期今年12月投票。9月28日，花旗召开了一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，应该具有权威性。该专家明确了一点，目前的法案，限制范围不包含医保！重要的事情重复一遍，不包含医保！并且，10月10日，参议院对提案出了一份细节补充报告，明确了不包含医保，只限制联邦直接采购。至此，我认为生物安全法基本可以翻篇了。且不说参议院版本连法案名字都改了，药明生物完全没有基因相关业务，哪怕就是通过众议院的版本，不包含医保，影响也是完全可控可量化的，用药明生物管理层的说法，影响收入2%左右。这个事情，自始至终就是一场闹剧，就是大选年用来吸引眼球的噱头。CXO行业，本质是帮助制药企业开发新药的，整个过程中，新药的IP完全属于制药公司。者根本不存在中美产业竞争的问题。拿这个行业做文章，我实在想不出对美帝有啥好处。非要说好处的化，唯一能想到的就是促使产业回流？但药明生物，已经在美国建厂了，不是已经帮你实现产业回流了？禁掉中国的CXO，可能对传统MNC影响不大，但对占据整个行业绝大多数的biotech，就是毁灭性打击。对这些只有一、两条管线的小公司来说，可靠性和效率就是生命线。全世界，你让他们去哪找替代产能？这不是要他们的命吗？所以，参议院的版本，给了八年过渡期，但八年以后，全世界，哪个地方能冒出这么多高素质的生产力来？如果强行这么搞，结果只有一个，就是放慢全球创新药的开发进度，这对全人类，都不是一个好消息。我实在想不出，美国的政客，如何才能在巨大的阻力下，推进这么个费力不讨好的法案。如果真的想搞中国的CXO产业链，何必搞立法这么复杂的一套，向华为一样，直接禁掉不好吗？大选年的政治作秀，随着大选尘埃落定，可以休矣！第二，大股东高价大额减持的道德风险。不可否认，这个事情是客观存在的，但我实在不能理解，这有什么问题。上一轮，你们非要抱团赛道，把公司市值炒到5、6000亿，200倍PE，换任何一个理性的大股东，都会减持。何况，药明生物有自己的特殊性。当年，药明系从美股私有化退市，大股东是借了银团贷款的，实际上，他手里的股份，很大部分可以理解为银团的代持。你们把股价炒到一个匪夷所思的高度，大股东背后的金主要兑现，大股东除了减持，还能有啥办法？这根本就是合理的商业行为，跟其他无关。事实上，公司大股东李革，在药明生物任非执行董事，在公司一分钱薪酬都不领。我感觉，天天骂大股东高价减持的，就是上一轮无脑抱团赛道的傻缺，因为自己的愚蠢亏了钱在这里骂娘。这帮菜鸡在资本市场不亏钱，才是没有天理。最后，看一下估值。2023年，公司归母净利润34亿RMB，经调整归母净利润47亿RMB，这里面主要的区别，是12.7亿股权激励费用。公司指引，今年经调整归母净利润个位数增长，大概算50亿RMB吧。扣除股权激励费用，大概37、8亿RMB。当前公司市值620亿港币，即使把股权激励全部算作公司费用，也就16、7PE。实际上呢，把股权激励全部算作费用也不完全合理，比方说，公司2023年的股权激励计划，发行的基础是40多港币，但当前公司股价16港币左右，其实对股东的摊薄，是要打对折还多的。股东回报方面，2017年港股上市以来，公司从未有过现金分红。但是，公司分别于2021年12月，2022年9月，2023年6月，推出5亿美元，3亿美元和6亿美元的回购计划。前两次计划已足额回购注销，2023年的回购计划正在执行中。实际上，这公司的股东回报做得相当好了，上面讲过，公司一直在大额资本支出，伴随业绩高速增长，直到2022年，自由现金流才转正，但2021年底，公司就开始推出了大额回购计划。公司已经证明了不是嘴炮式回购，相信到今年底，2023年回购计划能足额进行。我们这么算，2022，2023，2024三年，公司合计归母净利润16.5亿美元，这三年，公司合计回购14亿美元，相当于净利润的85%拿出来回购股份了，这个股东回报力度，应该可以在全市场名列前茅了吧？事实上，药明生物大股东李革，在公司基本是甩手掌柜，公司的实际掌舵者是CEO陈智胜。陈博士2023年在公司领400万RMB的现金薪酬，9300万RMB的股权薪酬（当然，计价基础是40多港币/股），薪酬的绝大部分，都是股权。所以，这公司，管理层和小股东的股权一致性是非常好的。2024年中报，公司现金资产-有息负债为74亿RMB，处在净现金状态。考虑到自由现金流已经转正，随着未来业绩增长，资本支出降低会越来越多，公司是有足够的能力和意愿回报股东的。总结一下，我看到的药明生物，基本面上，公司是所在行业最强的存在，地缘政治风险正在褪去，行业周期向上，公司收入和利润处在新一轮增长的起点，大股东没有道德风险，管理层和小股东股权一致性甚好，公司资产负债表强壮，有意愿，也有能力做好股东回报。二级市场上，公司股价从最高点到今年8月跌去93%，但事实上，在整个过程中，公司基本面没有发生显著的负向变化，就是说，跌掉的全都是估值。当前，即使按最严格的算法，公司PE16、7倍（这还是短期股价反弹60%以后的估值），未来几年，展望持续20%~30%的增长。最后，我很喜欢这公司的愿景，“成为全球生物制药行业最高、最宽和最深的能力和技术平台，让天下没有难做的药，难治的病！”如果能够达成这个愿景，我相信，他绝不止当前678亿港币这点市值。当一个绝对的行业龙头，股价由于各种原因，跌残了以后，但基本面又出现强力正向驱动，经验和直觉告诉我，这意味着强劲的投资回报。特别感谢 @金融街行藏 ，本文借用了老兄很多观点。</v>
@@ -692,155 +692,155 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="str">
-        <v>回复@药明生物3年10倍: 赞同对药明生</v>
+        <v>药明生物，周末发</v>
       </c>
       <c r="B3" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/304714908</v>
+        <v>https://xueqiu.com/1429872781/310749770</v>
       </c>
       <c r="C3" s="2" t="str">
-        <v>2024/9/15</v>
+        <v>2024/11/1</v>
       </c>
       <c r="D3" s="2">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="str">
-        <v>回复@药明生物3年10倍: 赞同对药明生物的判断//@药明生物3年10倍:回复@LTLyra:楼主非医药专业，有这么深刻的认知真是厉害呀。创新药的属性决定了，要么扶摇直上要么跌到泥土。可喜的是，目前的极端熊市、地缘局势、行业周期，让药明生物成了落难凤凰。但是，无论从目前漏斗订单（全球1/3在研生物药，超过一半被巨头收购的药物在公司做，足以证明技术水平），还是授权出去的45个双抗类药物的里程碑收入，都提供了未来五到十年巨大业绩支撑，目前的价格太难得了，中途无非是提案的事情颠簸一下，很快就修复了，向上十倍空间开启，坐稳扶好。</v>
+        <v>药明生物，周末发</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <v>回复@AI时间的玫瑰: 我是看好整个行业</v>
+        <v>必须要增加康方和药明的仓位了......</v>
       </c>
       <c r="B4" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/304135177</v>
+        <v>https://xueqiu.com/1429872781/304480511</v>
       </c>
       <c r="C4" s="2" t="str">
-        <v>2024/9/10</v>
+        <v>2024/9/12</v>
       </c>
       <c r="D4" s="2">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>回复@AI时间的玫瑰: 我是看好整个行业里的优势公司。药明生物，是大分子生物药一条龙服务公司，具备全球独一挡的竞争力。只要整个行业需求增长，药明生物就是最受益的那个。当全行业最优质公司被特殊事件打击，如果这个事，不能致死致残，只是伤及皮毛......//@AI时间的玫瑰:回复@LTLyra:YM不是CXO吗。看好的是创新药吧</v>
+        <v>必须要增加康方和药明的仓位了.........</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>回复@时光如镜: 如果对面的打压不是过于</v>
+        <v>要不要吸取一直犹豫，导致康方生物仓位没买</v>
       </c>
       <c r="B5" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/286165586</v>
+        <v>https://xueqiu.com/1429872781/304056544</v>
       </c>
       <c r="C5" s="2" t="str">
-        <v>2024/4/15</v>
+        <v>2024/9/9</v>
       </c>
       <c r="D5" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>回复@时光如镜: 如果对面的打压不是过于极端，这个位置的药明生物确实是难得的投资标的//@时光如镜:回复@范俊青:创新药投资难度太大了，不如 好把握</v>
+        <v>要不要吸取一直犹豫，导致康方生物仓位没买够的教训，提前把药明生物的仓位打上去？这是个问题，容我好好想想</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
-        <v>要不要吸取一直犹豫，导致康方生物仓位没买</v>
+        <v>多正常，我写篇药明生物基本面的贴，都给我</v>
       </c>
       <c r="B6" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/304056544</v>
+        <v>https://xueqiu.com/1429872781/311265272</v>
       </c>
       <c r="C6" s="2" t="str">
-        <v>2024/9/9</v>
+        <v>2024/11/5</v>
       </c>
       <c r="D6" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="str">
-        <v>要不要吸取一直犹豫，导致康方生物仓位没买够的教训，提前把药明生物的仓位打上去？这是个问题，容我好好想想</v>
+        <v>多正常，我写篇药明生物基本面的贴，都给我限流，这垃圾平台，自己作死</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <v>多正常，我写篇药明生物基本面的贴，都给我</v>
+        <v>药明生物</v>
       </c>
       <c r="B7" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/311265272</v>
+        <v>https://xueqiu.com/1429872781/305071405</v>
       </c>
       <c r="C7" s="2" t="str">
-        <v>2024/11/5</v>
+        <v>2024/9/20</v>
       </c>
       <c r="D7" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="str">
-        <v>多正常，我写篇药明生物基本面的贴，都给我限流，这垃圾平台，自己作死</v>
+        <v>药明生物</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
-        <v>必须要增加康方和药明的仓位了......</v>
+        <v>回复@药明生物3年10倍: 赞同对药明生</v>
       </c>
       <c r="B8" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/304480511</v>
+        <v>https://xueqiu.com/1429872781/304714908</v>
       </c>
       <c r="C8" s="2" t="str">
-        <v>2024/9/12</v>
+        <v>2024/9/15</v>
       </c>
       <c r="D8" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>必须要增加康方和药明的仓位了.........</v>
+        <v>回复@药明生物3年10倍: 赞同对药明生物的判断//@药明生物3年10倍:回复@LTLyra:楼主非医药专业，有这么深刻的认知真是厉害呀。创新药的属性决定了，要么扶摇直上要么跌到泥土。可喜的是，目前的极端熊市、地缘局势、行业周期，让药明生物成了落难凤凰。但是，无论从目前漏斗订单（全球1/3在研生物药，超过一半被巨头收购的药物在公司做，足以证明技术水平），还是授权出去的45个双抗类药物的里程碑收入，都提供了未来五到十年巨大业绩支撑，目前的价格太难得了，中途无非是提案的事情颠簸一下，很快就修复了，向上十倍空间开启，坐稳扶好。</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="str">
-        <v>同加金斯瑞。 药明弹性更大，你牛逼。</v>
+        <v>回复@AI时间的玫瑰: 我是看好整个行业</v>
       </c>
       <c r="B9" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/287272204</v>
+        <v>https://xueqiu.com/1429872781/304135177</v>
       </c>
       <c r="C9" s="2" t="str">
-        <v>2024/4/23</v>
+        <v>2024/9/10</v>
       </c>
       <c r="D9" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="str">
-        <v>同加金斯瑞。 药明弹性更大，你牛逼。</v>
+        <v>回复@AI时间的玫瑰: 我是看好整个行业里的优势公司。药明生物，是大分子生物药一条龙服务公司，具备全球独一挡的竞争力。只要整个行业需求增长，药明生物就是最受益的那个。当全行业最优质公司被特殊事件打击，如果这个事，不能致死致残，只是伤及皮毛......//@AI时间的玫瑰:回复@LTLyra:YM不是CXO吗。看好的是创新药吧</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="str">
-        <v>药明生物，周末发</v>
+        <v>同加金斯瑞。 药明弹性更大，你牛逼。</v>
       </c>
       <c r="B10" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/310749770</v>
+        <v>https://xueqiu.com/1429872781/287272204</v>
       </c>
       <c r="C10" s="2" t="str">
-        <v>2024/11/1</v>
+        <v>2024/4/23</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="str">
-        <v>药明生物，周末发</v>
+        <v>同加金斯瑞。 药明弹性更大，你牛逼。</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="str">
-        <v>药明生物</v>
+        <v>回复@时光如镜: 如果对面的打压不是过于</v>
       </c>
       <c r="B11" s="2" t="str">
-        <v>https://xueqiu.com/1429872781/305071405</v>
+        <v>https://xueqiu.com/1429872781/286165586</v>
       </c>
       <c r="C11" s="2" t="str">
-        <v>2024/9/20</v>
+        <v>2024/4/15</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" s="2" t="str">
-        <v>药明生物</v>
+        <v>回复@时光如镜: 如果对面的打压不是过于极端，这个位置的药明生物确实是难得的投资标的//@时光如镜:回复@范俊青:创新药投资难度太大了，不如 好把握</v>
       </c>
     </row>
   </sheetData>

--- a/data/LTLyra_药明.xlsx
+++ b/data/LTLyra_药明.xlsx
@@ -479,7 +479,7 @@
         <v>7648</v>
       </c>
       <c r="E2" s="2" t="str">
-        <v>两年生物医药研究，从仿制药，到创新药，到医疗器械，最后一站，是医药外包服务（CXO）。看下来，国内的仿制药，可以直接回避了；创新药，核心逻辑是出海；医疗器械，看了半天，没看出感觉，暂时放弃；CXO，看对眼了，买成了核心持仓。对CXO行业，直接上结论吧。Ø  CXO是周期成长股。2019~2021年中，市场主要演绎了行业的成长特征，2021年中~2023年底，市场主要演绎了行业的周期属性。2024年到目前为止，市场演绎的是行业地缘政治风险。但从现在开始，地缘政治风险逐渐褪去，市场会再次演绎行业的成长属性。这是我对整个行业定性的判断Ø  CXO行业的周期属性跟生物医药行业的投融资强度强相关。生物医药行业的需求本身是无限的，这来源于人类本身对生命健康的无限追求。但生物医药行业的研发支出，却和两个因素相关。第一，生物医药行业本身的发展，只有在新一代技术持续被开发出来/重磅产品持续放量的加持下，行业赚到钱，才会加大投入。第二，资本市场外围环境，最重要的是生物医药公司二级市场估值。只有二级市场估值上升，一级市场看到赚钱的机会，行业才会热起来，资金不断投入，更多项目立项。而CXO行业的收入，就是生物医药行业研发支出的一部分。Ø  CXO行业的成长属性，来源于三个方面。第一，生物医药公司研发支出的自然增长。第二，CXO渗透率的提升。第三，在强大的竞争优势加持下，全球CXO需求向国内转移的趋势。我们观察一下当前的产业趋势。从最开始的小分子化学药，到多肽药物，然后，出现了靶点的概念，各种靶向药，单抗开始爆发，当前正给整个制药行业贡献大量的利润。再后来，XDC，双抗药物开始出现，以及更前沿的基因疗法，研发投入驱动着整个医药行业在不断的向前发展。二级市场，上一轮周期顶部发生在2021年，美股XBI指数，恒生医疗保健指数，都在2021年见顶，然后经历了三年寒冬。生物医药行业的寒冬，制药公司都在缩减研发，反应到CXO，就是订单减少，竞争加剧。随着美国进入降息周期，生物医药行业开始复苏，2023年四季度，随着降息预期渐浓，XBI指数大幅反弹，伴随着一级市场投融资逐步恢复。各种biotech公司拿到钱，研发重新开始活跃，CXO行业新签订单开始持续回暖。这一点不是推测，而是已经从上市CXO公司的二、三季报持续得到验证。生物医药这个行业，天然就是逆集中的，能不能研发出好药，跟是不是大型公司没啥关系，你永远都不知道，下一款最牛逼的药物，现在正在哪个小公司的实验室里。这个行业的趋势就是，一大群小型biotech公司疯狂研发，最终成功的那几个，被MNC收购。而小型biotech，为了提高研发的效率，恰恰最需要CXO的帮助。所以，整个行业CXO的渗透率不断提升。回到中国的CXO行业，我的观点是，这个行业，是中国工程师红利在生物医药行业的完美映射。我们已经在消费电子，新能源制造，电动汽车等领域完美演绎过这个逻辑。并且，现在，在生物医药行业，这个逻辑也开始逐步呈现，比如说，视野所及，实体瘤领域，下一代免疫疗法2.0的基石产品，就是康方生物的AK112+AK104，这可能是碾压K药，O药的存在；火热的ADC领域，呈现出一超多强的局面，一超就是日本的第一三共，凭借DS8201的威风，横扫行业，但多强几乎全部是国内的医药公司，在这个领域，欧美已经落后。血液瘤领域，百济，亚盛，传奇的几个核心产品，将是未来市场最重要的玩家。但生物医药研发，毕竟风险巨大，存在赌石的风险，很难押注成功的公司。而这个问题在CXO行业就不存在，我帮你们疯狂内卷，不管你们最后谁成了，我都能受益。CXO行业，不单纯是一个成本和效率的生意。这跟消费电子的代工公司完全不是一回事。一款新药，从最开始的靶点选择，到药物发现，到临床前药理毒理分析，到IND申报，到生产工艺开发，到临床实验支持，再到NDA/BLA申报，最终商业化生产。最优秀的CXO可以提供一站式的服务支持。这绝不是一个简单的代工可以比拟。必须有足够的技术积累，以及足够多的高素质人才，才能玩起这个游戏。纵观全球，中国是最好土壤，工程师红利又一次完美的体现。永远不用担心这个产业会向相对落后的东南亚转移，也不用担心这个行业向不承认/保护药物专利的印度转移。成本比我低的东南亚不会玩，会玩的欧美成本比我高，效率比我低。所以，中国CXO行业的市占率不断提升。这个行业，另外一个特点就是，一旦形成规模，壁垒极高。我们都知道，生物医药研发，九死一生，十年时间，十亿美金，10%的成功概率，做出一款新药。在这种情况下，对制药公司来说，合作伙伴的可靠性就及其重要，没有任何制药公司，尤其是占据这个行业绝大多数，一款药定生死的biotech，会把订单交给一个没有优秀往绩证明的新玩家，因为试错的成本实在是太高了！只有可靠性还不够，还需要足够的高效，我们都知道，如果两家公司开发同一个靶点的药物，如果最终疗效类似，那么，先上市一年和后上市一年，差别是几倍的市场份额。这些行业特性，都决定了CXO行业会向头部玩家逐步集中，建立起口碑和规模优势的头部玩家，护城河及其深厚。说完行业，再说具体的公司。从类别上来说，CXO可以分为小分子化学药CXO和大分子生物药CXO。具体到公司上，这行业分为两类，一类是药明系，一类是其他。这个结论，不接受辩驳，竞争优势就是这么明显。从投资的角度，要么你不投这个行业，要么，药明系就是绕不过去的存在。药明系，现在三家上市公司，药明康德，药明生物，药明合联。药明康德专注小分子化学药；药明生物专注大分子生物药；药明合联是从药明生物分拆上市的，现在依旧是药明生物的并表子公司，专注生物药的一个领域，XDC。由于药明合联聚焦的领域相对较窄，虽然当前正在风口，增速很快，但毕竟生物医药技术变更频繁，很难说未来是不是就会突然失速，且考虑到合联估值较高，且被生物并表，所以，想投资合联，直接投资生物就好。所以，投资药明系，基本就是选择康德和生物的区别。选择药明生物的理由主要有两个。Ø  从细分行业的角度，生物药优于化学药。当前层出不穷的新技术，大多数集中于生物药领域。行业增速上，大分子生物药比小分子化学药快一倍，这决定了聚焦生物药的CXO赛道更长，增速更快；生物制药的技术壁垒高于化学药，这决定了，聚焦生物药的CXO，对客户来说，具有更大的粘性。举两个例子佐证这个观点，第一，国内的头部CXO公司，不管是药明康德，康龙化成，还是凯莱英，都是聚焦于小分子化学药，只有药明生物聚焦于大分子生物药。别家不是不想做，而是药明生物太强大，没法竞争。第二，就在不久前，还传出一个新闻，某MNC在行业头部玩家三星生物生产的一款药，在最后阶段，由于生产工艺的问题，被FDA驳回上市申请。行业头部玩家尚且如此，这行业，基本没有任何新进入者的可能，最后就是几个寡头垄断格局。Ø  两家企业的发展阶段不同，如果说药明康德现在是壮年阶段，药明生物则处在青年阶段。这可以从两家公司的收入结构看出。CRDMO，R（研究），D（开发），M（生产）三个阶段，药明康德，更大比例的收入来M端。一个M端订单的收入是远高于一个R和D端订单的。而大多数M端的订单，都是从R和D端一路做下来的。所以，从这个角度，康德趋向于成熟期的企业，而生物还在成长期。虽然现在康德踩在减肥药爆发的风口，但未来，生物药的增长势头更加持久。从行业和公司的角度，选定药明生物，再来看看这家公司的基本面。贴几张公司的PPT就能知道他的历史战绩有多强。7、8年来，收入，毛利，经调整净利润都是50%~70%级别的复合增长，除了牛逼，没有第二个词形容了。但2023年以来，增速在明显放缓甚至倒退。这里面主要是两个方面因素影响。其一，新冠收入退坡。第二，全球生物医药行业投融资冰冻。但这两个因素，都在成为过去式。按公司指引，今年下半年，净利润同比会有20%~30%的增长。牛逼的往期业绩不能证明未来的投资价值。我们分析一下这家公司未来的增长潜力。在我看来，这公司未来有四重增长潜力。第一，全球生物医药行业回暖带来的自然增长。这一点，从CXO上市公司的新增订单可以得到印证。第二，公司独特的CRDMO一条龙服务商业模式进行到当前阶段带来的增长。药明生物订单总量是从2016年开始大爆发，从103个项目增长到当前的742个，这里面，绝大多少项目都是从早期开始，按照医药开发的进度和规律，未来这几年，这些项目中必然有一定比例能够陆续成药，进而转化成药明生物的商业化订单。所以，在相同项目数的情况下，药明生物的收入和利润会明显增厚，其实，这就是药明康德现在表现出来的状态。这个观点，可以从下面这张图得到佐证。说明一下这张图隐含的意义，PPQ在生物医药行业中指的是工艺性能确认(Process Performance Qualification)。药品商业化之前需要做PPQ，通常在商业化的前两年开始。就是产品准备上市的时候，要做一个工艺可重复性的研究。把这个工艺做三次，做完三次，如果是非常吻合，就有一个上市前的审核数据资料。提交给监管机构批准完了以后，这个产品就能上市。实际上，PPQ就是M端订单的前置指标。目前药明生物体内做PPQ的转化率是95%以上，做完PPQ留在体内继续商业化生成的留存率也是 95%以上，之所以有这么高的粘性，是因为做完了PPQ以后，如果到别的厂商去做的话，要重新做PPQ，不光花时间，有的复杂的药物还需要重新做三期临床数据，所以基本不存在PPQ之后再更换厂商的情况，如果有，只能说明甲方感觉对方技术质量不达标，这也是大分子CDMO 企业高粘性的原因，甲方爸爸不缺钱，妄图通过低价抢单不可能的，这个行业格局已经确定，就是头部几个玩家瓜分蛋糕。第三，随着产能利用率提升，公司毛利率会进入恢复性增长阶段，进而带动净利润增长。看下面这张图，2020年开始，公司都处在大资本开支时期，包括2024~2026年，公司依然指引每年资本开支50亿。三、四百亿的资本开支，全部用来投资新增产能，尤其是海外新增产能。全球双厂战略，是未来应对地缘政治风险。对地缘政治不敏感的客户，国内产能支持，对地缘政治敏感的客户，海外产能支持。新产能开始达产，叠加新订单增速放缓，自然限制产能上升，毛利率下降。实际上，药明生物当前的毛利率，比正常情况是低4、5个百分点的，反映到经调整归母净利润上，其实就是降低了15%~20%的经调整归母净利润。公司指引，随着产能利用率提升，未来毛利润逐年上升1个百分点，直到正常。这张图透露出来更重要的一条信息是，尽管资本支出高企，但2022年开始，公司已经开始实现了正向自由现金流，并且，公司指引，今年保持正向自由现金流。那么未来，在新增订单及老订单自然向后期转化的支持下，随着新产能逐步投产，净利润和自由现金流会出现什么样的变化，相信非常容易判断。第四，药明生物并不是一家简单的外包服务公司，他是有药物开发能力的！这是他独特的增长动力（当然，这个能力药明康德也有）。2023年，药明生物与 GSK 就多款创新 TCE 双抗/多抗达成许可协议，GSK将获得基于药明生物专利技术平台开发的一款处于临床前阶段T细胞接合器 （TCE）双特异性抗体的独家许可权，并基于该平台选择至多三款其他 TCE双特异性/多特异性抗体。药明生物将获得 4000 万美元首付款和最高达14 亿美元的里程碑付款以及基于净销售额的销售分成。2024年，默沙东7亿美金首付，13亿美金总包收购同润生物一款TCE双抗，该双抗基于药明生物独家技术研发，药明生物将有权收到部分首付款，里程碑付款及未来药品上市后的销售分成。药明生物确认，5亿RMB的付款将计入公司下半年收入。这两个，只是披露出来，较大规模的BD合作，这些年，药明生物基于自己的研发平台，还有很多未披露的BD合作，随着药物研发进展，这些授权出去的分子，必然有能成药的，这意味着，药明生物将在整个药物的开发和商业化周期都获得收入。这些收入，将逐步计入报表，成为利润。经营上，这家公司是没有问题的。投资者一直担心，诟病的其实是两个非经营上的问题。第一，美国的生物安全法，对跟中国部分公司合作做出限制，药明生物在这个提案中被点名。这个问题，从今年年初开始发酵，是今年药明生物股价暴跌的元凶。到当前，这个问题，基本接近盖棺定论了。简单的说，美国的司法体系，想要立一部法，需要分别通过众议院和参议院投票，并且两院需要就投票版本达成一致，最终交总统签字成为法律。所谓的生物安全法，在9月10日众议院投票中，以306票支持81票反对44票弃权通过，支持率71%。拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。在投票过程中，发生了激烈的辩论。本来预期毫无悬念，轻松通过的法案，其实并不像大多数人预期的那样。在共和党控制的众议院，投票尚且争议巨大，那么，到了民主党控制的参议院，会发生什么？9月25日，参议院更新了法案内容，其实，甚至连法案的名字都改了，现在叫做“禁止外国公司获取美国公民遗传信息法案”，在这部法案中，药明生物被除名，并且，法案内容聚焦于基因相关业务。这部法案，目前还没有进入投票环节，预期今年12月投票。9月28日，花旗召开了一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，应该具有权威性。该专家明确了一点，目前的法案，限制范围不包含医保！重要的事情重复一遍，不包含医保！并且，10月10日，参议院对提案出了一份细节补充报告，明确了不包含医保，只限制联邦直接采购。至此，我认为生物安全法基本可以翻篇了。且不说参议院版本连法案名字都改了，药明生物完全没有基因相关业务，哪怕就是通过众议院的版本，不包含医保，影响也是完全可控可量化的，用药明生物管理层的说法，影响收入2%左右。这个事情，自始至终就是一场闹剧，就是大选年用来吸引眼球的噱头。CXO行业，本质是帮助制药企业开发新药的，整个过程中，新药的IP完全属于制药公司。者根本不存在中美产业竞争的问题。拿这个行业做文章，我实在想不出对美帝有啥好处。非要说好处的化，唯一能想到的就是促使产业回流？但药明生物，已经在美国建厂了，不是已经帮你实现产业回流了？禁掉中国的CXO，可能对传统MNC影响不大，但对占据整个行业绝大多数的biotech，就是毁灭性打击。对这些只有一、两条管线的小公司来说，可靠性和效率就是生命线。全世界，你让他们去哪找替代产能？这不是要他们的命吗？所以，参议院的版本，给了八年过渡期，但八年以后，全世界，哪个地方能冒出这么多高素质的生产力来？如果强行这么搞，结果只有一个，就是放慢全球创新药的开发进度，这对全人类，都不是一个好消息。我实在想不出，美国的政客，如何才能在巨大的阻力下，推进这么个费力不讨好的法案。如果真的想搞中国的CXO产业链，何必搞立法这么复杂的一套，向华为一样，直接禁掉不好吗？大选年的政治作秀，随着大选尘埃落定，可以休矣！第二，大股东高价大额减持的道德风险。不可否认，这个事情是客观存在的，但我实在不能理解，这有什么问题。上一轮，你们非要抱团赛道，把公司市值炒到5、6000亿，200倍PE，换任何一个理性的大股东，都会减持。何况，药明生物有自己的特殊性。当年，药明系从美股私有化退市，大股东是借了银团贷款的，实际上，他手里的股份，很大部分可以理解为银团的代持。你们把股价炒到一个匪夷所思的高度，大股东背后的金主要兑现，大股东除了减持，还能有啥办法？这根本就是合理的商业行为，跟其他无关。事实上，公司大股东李革，在药明生物任非执行董事，在公司一分钱薪酬都不领。我感觉，天天骂大股东高价减持的，就是上一轮无脑抱团赛道的傻缺，因为自己的愚蠢亏了钱在这里骂娘。这帮菜鸡在资本市场不亏钱，才是没有天理。最后，看一下估值。2023年，公司归母净利润34亿RMB，经调整归母净利润47亿RMB，这里面主要的区别，是12.7亿股权激励费用。公司指引，今年经调整归母净利润个位数增长，大概算50亿RMB吧。扣除股权激励费用，大概37、8亿RMB。当前公司市值620亿港币，即使把股权激励全部算作公司费用，也就16、7PE。实际上呢，把股权激励全部算作费用也不完全合理，比方说，公司2023年的股权激励计划，发行的基础是40多港币，但当前公司股价16港币左右，其实对股东的摊薄，是要打对折还多的。股东回报方面，2017年港股上市以来，公司从未有过现金分红。但是，公司分别于2021年12月，2022年9月，2023年6月，推出5亿美元，3亿美元和6亿美元的回购计划。前两次计划已足额回购注销，2023年的回购计划正在执行中。实际上，这公司的股东回报做得相当好了，上面讲过，公司一直在大额资本支出，伴随业绩高速增长，直到2022年，自由现金流才转正，但2021年底，公司就开始推出了大额回购计划。公司已经证明了不是嘴炮式回购，相信到今年底，2023年回购计划能足额进行。我们这么算，2022，2023，2024三年，公司合计归母净利润16.5亿美元，这三年，公司合计回购14亿美元，相当于净利润的85%拿出来回购股份了，这个股东回报力度，应该可以在全市场名列前茅了吧？事实上，药明生物大股东李革，在公司基本是甩手掌柜，公司的实际掌舵者是CEO陈智胜。陈博士2023年在公司领400万RMB的现金薪酬，9300万RMB的股权薪酬（当然，计价基础是40多港币/股），薪酬的绝大部分，都是股权。所以，这公司，管理层和小股东的股权一致性是非常好的。2024年中报，公司现金资产-有息负债为74亿RMB，处在净现金状态。考虑到自由现金流已经转正，随着未来业绩增长，资本支出降低会越来越多，公司是有足够的能力和意愿回报股东的。总结一下，我看到的药明生物，基本面上，公司是所在行业最强的存在，地缘政治风险正在褪去，行业周期向上，公司收入和利润处在新一轮增长的起点，大股东没有道德风险，管理层和小股东股权一致性甚好，公司资产负债表强壮，有意愿，也有能力做好股东回报。二级市场上，公司股价从最高点到今年8月跌去93%，但事实上，在整个过程中，公司基本面没有发生显著的负向变化，就是说，跌掉的全都是估值。当前，即使按最严格的算法，公司PE16、7倍（这还是短期股价反弹60%以后的估值），未来几年，展望持续20%~30%的增长。最后，我很喜欢这公司的愿景，“成为全球生物制药行业最高、最宽和最深的能力和技术平台，让天下没有难做的药，难治的病！”如果能够达成这个愿景，我相信，他绝不止当前678亿港币这点市值。当一个绝对的行业龙头，股价由于各种原因，跌残了以后，但基本面又出现强力正向驱动，经验和直觉告诉我，这意味着强劲的投资回报。特别感谢 @金融街行藏 ，本文借用了老兄很多观点。</v>
+        <v>&lt;p&gt;两年生物医药研究，从仿制药，到创新药，到医疗器械，最后一站，是医药外包服务（CXO）。&lt;/p&gt;&lt;p&gt;看下来，国内的仿制药，可以直接回避了；创新药，核心逻辑是出海；医疗器械，看了半天，没看出感觉，暂时放弃；CXO，看对眼了，买成了核心持仓。&lt;/p&gt;&lt;p&gt;对CXO行业，直接上结论吧。&lt;/p&gt;&lt;p&gt;Ø  CXO是周期成长股。2019~2021年中，市场主要演绎了行业的成长特征，2021年中~2023年底，市场主要演绎了行业的周期属性。2024年到目前为止，市场演绎的是行业地缘政治风险。但从现在开始，地缘政治风险逐渐褪去，市场会再次演绎行业的成长属性。这是我对整个行业定性的判断&lt;/p&gt;&lt;p&gt;Ø  CXO行业的周期属性跟生物医药行业的投融资强度强相关。生物医药行业的需求本身是无限的，这来源于人类本身对生命健康的无限追求。但生物医药行业的研发支出，却和两个因素相关。第一，生物医药行业本身的发展，只有在新一代技术持续被开发出来/重磅产品持续放量的加持下，行业赚到钱，才会加大投入。第二，资本市场外围环境，最重要的是生物医药公司二级市场估值。只有二级市场估值上升，一级市场看到赚钱的机会，行业才会热起来，资金不断投入，更多项目立项。而CXO行业的收入，就是生物医药行业研发支出的一部分。&lt;/p&gt;&lt;p&gt;Ø  CXO行业的成长属性，来源于三个方面。第一，生物医药公司研发支出的自然增长。第二，CXO渗透率的提升。第三，在强大的竞争优势加持下，全球CXO需求向国内转移的趋势。&lt;/p&gt;&lt;p&gt;我们观察一下当前的产业趋势。从最开始的小分子化学药，到多肽药物，然后，出现了靶点的概念，各种靶向药，单抗开始爆发，当前正给整个制药行业贡献大量的利润。再后来，XDC，双抗药物开始出现，以及更前沿的基因疗法，研发投入驱动着整个医药行业在不断的向前发展。&lt;/p&gt;&lt;p&gt;二级市场，上一轮周期顶部发生在2021年，美股XBI指数，恒生医疗保健指数，都在2021年见顶，然后经历了三年寒冬。生物医药行业的寒冬，制药公司都在缩减研发，反应到CXO，就是订单减少，竞争加剧。随着美国进入降息周期，生物医药行业开始复苏，2023年四季度，随着降息预期渐浓，XBI指数大幅反弹，伴随着一级市场投融资逐步恢复。各种biotech公司拿到钱，研发重新开始活跃，CXO行业新签订单开始持续回暖。这一点不是推测，而是已经从上市CXO公司的二、三季报持续得到验证。&lt;/p&gt;&lt;p&gt;生物医药这个行业，天然就是逆集中的，能不能研发出好药，跟是不是大型公司没啥关系，你永远都不知道，下一款最牛逼的药物，现在正在哪个小公司的实验室里。这个行业的趋势就是，一大群小型biotech公司疯狂研发，最终成功的那几个，被MNC收购。而小型biotech，为了提高研发的效率，恰恰最需要CXO的帮助。所以，整个行业CXO的渗透率不断提升。&lt;/p&gt;&lt;p&gt;回到中国的CXO行业，我的观点是，&lt;b&gt;这个行业，是中国工程师红利在生物医药行业的完美映射。&lt;/b&gt;我们已经在消费电子，新能源制造，电动汽车等领域完美演绎过这个逻辑。并且，现在，在生物医药行业，这个逻辑也开始逐步呈现，比如说，视野所及，实体瘤领域，下一代免疫疗法2.0的基石产品，就是康方生物的AK112+AK104，这可能是碾压K药，O药的存在；火热的ADC领域，呈现出一超多强的局面，一超就是日本的第一三共，凭借DS8201的威风，横扫行业，但多强几乎全部是国内的医药公司，在这个领域，欧美已经落后。血液瘤领域，百济，亚盛，传奇的几个核心产品，将是未来市场最重要的玩家。但生物医药研发，毕竟风险巨大，存在赌石的风险，很难押注成功的公司。而这个问题在CXO行业就不存在，我帮你们疯狂内卷，不管你们最后谁成了，我都能受益。&lt;/p&gt;&lt;p&gt;CXO行业，不单纯是一个成本和效率的生意。这跟消费电子的代工公司完全不是一回事。一款新药，从最开始的靶点选择，到药物发现，到临床前药理毒理分析，到IND申报，到生产工艺开发，到临床实验支持，再到NDA/BLA申报，最终商业化生产。最优秀的CXO可以提供一站式的服务支持。这绝不是一个简单的代工可以比拟。必须有足够的技术积累，以及足够多的高素质人才，才能玩起这个游戏。纵观全球，中国是最好土壤，工程师红利又一次完美的体现。永远不用担心这个产业会向相对落后的东南亚转移，也不用担心这个行业向不承认/保护药物专利的印度转移。成本比我低的东南亚不会玩，会玩的欧美成本比我高，效率比我低。所以，中国CXO行业的市占率不断提升。&lt;/p&gt;&lt;p&gt;这个行业，另外一个特点就是，一旦形成规模，壁垒极高。我们都知道，生物医药研发，九死一生，十年时间，十亿美金，10%的成功概率，做出一款新药。在这种情况下，对制药公司来说，合作伙伴的可靠性就及其重要，没有任何制药公司，尤其是占据这个行业绝大多数，一款药定生死的biotech，会把订单交给一个没有优秀往绩证明的新玩家，因为试错的成本实在是太高了！只有可靠性还不够，还需要足够的高效，我们都知道，如果两家公司开发同一个靶点的药物，如果最终疗效类似，那么，先上市一年和后上市一年，差别是几倍的市场份额。这些行业特性，都决定了CXO行业会向头部玩家逐步集中，建立起口碑和规模优势的头部玩家，护城河及其深厚。&lt;/p&gt;&lt;p&gt;说完行业，再说具体的公司。&lt;/p&gt;&lt;p&gt;从类别上来说，CXO可以分为小分子化学药CXO和大分子生物药CXO。&lt;/p&gt;&lt;p&gt;具体到公司上，这行业分为两类，一类是药明系，一类是其他。这个结论，不接受辩驳，竞争优势就是这么明显。从投资的角度，要么你不投这个行业，要么，药明系就是绕不过去的存在。&lt;/p&gt;&lt;p&gt;药明系，现在三家上市公司，药明康德，药明生物，药明合联。药明康德专注小分子化学药；药明生物专注大分子生物药；药明合联是从药明生物分拆上市的，现在依旧是药明生物的并表子公司，专注生物药的一个领域，XDC。由于药明合联聚焦的领域相对较窄，虽然当前正在风口，增速很快，但毕竟生物医药技术变更频繁，很难说未来是不是就会突然失速，且考虑到合联估值较高，且被生物并表，所以，想投资合联，直接投资生物就好。&lt;/p&gt;&lt;p&gt;所以，投资药明系，基本就是选择康德和生物的区别。选择药明生物的理由主要有两个。&lt;/p&gt;&lt;p&gt;Ø  从细分行业的角度，生物药优于化学药。当前层出不穷的新技术，大多数集中于生物药领域。行业增速上，大分子生物药比小分子化学药快一倍，这决定了聚焦生物药的CXO赛道更长，增速更快；生物制药的技术壁垒高于化学药，这决定了，聚焦生物药的CXO，对客户来说，具有更大的粘性。举两个例子佐证这个观点，第一，国内的头部CXO公司，不管是药明康德，康龙化成，还是凯莱英，都是聚焦于小分子化学药，只有药明生物聚焦于大分子生物药。别家不是不想做，而是药明生物太强大，没法竞争。第二，就在不久前，还传出一个新闻，某MNC在行业头部玩家三星生物生产的一款药，在最后阶段，由于生产工艺的问题，被FDA驳回上市申请。行业头部玩家尚且如此，这行业，基本没有任何新进入者的可能，最后就是几个寡头垄断格局。&lt;/p&gt;&lt;p&gt;Ø  两家企业的发展阶段不同，如果说药明康德现在是壮年阶段，药明生物则处在青年阶段。这可以从两家公司的收入结构看出。CRDMO，R（研究），D（开发），M（生产）三个阶段，药明康德，更大比例的收入来M端。一个M端订单的收入是远高于一个R和D端订单的。而大多数M端的订单，都是从R和D端一路做下来的。所以，从这个角度，康德趋向于成熟期的企业，而生物还在成长期。虽然现在康德踩在减肥药爆发的风口，但未来，生物药的增长势头更加持久。&lt;/p&gt;&lt;p&gt;从行业和公司的角度，选定药明生物，再来看看这家公司的基本面。贴几张公司的PPT就能知道他的历史战绩有多强。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f191c39c733ac3fe3c237.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f191f95d75ac33fed0f14.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f192100274a833fe5031a.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;7、8年来，收入，毛利，经调整净利润都是50%~70%级别的复合增长，除了牛逼，没有第二个词形容了。但2023年以来，增速在明显放缓甚至倒退。这里面主要是两个方面因素影响。其一，新冠收入退坡。第二，全球生物医药行业投融资冰冻。但这两个因素，都在成为过去式。按公司指引，今年下半年，净利润同比会有20%~30%的增长。牛逼的往期业绩不能证明未来的投资价值。我们分析一下这家公司未来的增长潜力。在我看来，这公司未来有四重增长潜力。&lt;/p&gt;&lt;p&gt;第一，全球生物医药行业回暖带来的自然增长。这一点，从CXO上市公司的新增订单可以得到印证。&lt;/p&gt;&lt;p&gt;第二，公司独特的CRDMO一条龙服务商业模式进行到当前阶段带来的增长。药明生物订单总量是从2016年开始大爆发，从103个项目增长到当前的742个，这里面，绝大多少项目都是从早期开始，按照医药开发的进度和规律，未来这几年，这些项目中必然有一定比例能够陆续成药，进而转化成药明生物的商业化订单。所以，在相同项目数的情况下，药明生物的收入和利润会明显增厚，其实，这就是药明康德现在表现出来的状态。这个观点，可以从下面这张图得到佐证。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f192459a75ac43fd02c6d.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;说明一下这张图隐含的意义，PPQ在生物医药行业中指的是工艺性能确认(Process Performance Qualification)。药品商业化之前需要做PPQ，通常在商业化的前两年开始。就是产品准备上市的时候，要做一个工艺可重复性的研究。把这个工艺做三次，做完三次，如果是非常吻合，就有一个上市前的审核数据资料。提交给监管机构批准完了以后，这个产品就能上市。实际上，PPQ就是M端订单的前置指标。目前药明生物体内做PPQ的转化率是95%以上，做完PPQ留在体内继续商业化生成的留存率也是 95%以上，之所以有这么高的粘性，是因为做完了PPQ以后，如果到别的厂商去做的话，要重新做PPQ，不光花时间，有的复杂的药物还需要重新做三期临床数据，所以基本不存在PPQ之后再更换厂商的情况，如果有，只能说明甲方感觉对方技术质量不达标，这也是大分子CDMO 企业高粘性的原因，甲方爸爸不缺钱，妄图通过低价抢单不可能的，这个行业格局已经确定，就是头部几个玩家瓜分蛋糕。&lt;/p&gt;&lt;p&gt;第三，随着产能利用率提升，公司毛利率会进入恢复性增长阶段，进而带动净利润增长。看下面这张图，2020年开始，公司都处在大资本开支时期，包括2024~2026年，公司依然指引每年资本开支50亿。三、四百亿的资本开支，全部用来投资新增产能，尤其是海外新增产能。全球双厂战略，是未来应对地缘政治风险。对地缘政治不敏感的客户，国内产能支持，对地缘政治敏感的客户，海外产能支持。新产能开始达产，叠加新订单增速放缓，自然限制产能上升，毛利率下降。实际上，药明生物当前的毛利率，比正常情况是低4、5个百分点的，反映到经调整归母净利润上，其实就是降低了15%~20%的经调整归母净利润。公司指引，随着产能利用率提升，未来毛利润逐年上升1个百分点，直到正常。这张图透露出来更重要的一条信息是，尽管资本支出高企，但2022年开始，公司已经开始实现了正向自由现金流，并且，公司指引，今年保持正向自由现金流。那么未来，在新增订单及老订单自然向后期转化的支持下，随着新产能逐步投产，净利润和自由现金流会出现什么样的变化，相信非常容易判断。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f192808d72fc43fc66e35.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;第四，药明生物并不是一家简单的外包服务公司，他是有药物开发能力的！这是他独特的增长动力（当然，这个能力药明康德也有）。2023年，药明生物与 GSK 就多款创新 TCE 双抗/多抗达成许可协议，GSK将获得基于药明生物专利技术平台开发的一款处于临床前阶段T细胞接合器 （TCE）双特异性抗体的独家许可权，并基于该平台选择至多三款其他 TCE双特异性/多特异性抗体。药明生物将获得 4000 万美元首付款和最高达14 亿美元的里程碑付款以及基于净销售额的销售分成。2024年，默沙东7亿美金首付，13亿美金总包收购同润生物一款TCE双抗，该双抗基于药明生物独家技术研发，药明生物将有权收到部分首付款，里程碑付款及未来药品上市后的销售分成。药明生物确认，5亿RMB的付款将计入公司下半年收入。这两个，只是披露出来，较大规模的BD合作，这些年，药明生物基于自己的研发平台，还有很多未披露的BD合作，随着药物研发进展，这些授权出去的分子，必然有能成药的，这意味着，药明生物将在整个药物的开发和商业化周期都获得收入。这些收入，将逐步计入报表，成为利润。&lt;/p&gt;&lt;p&gt;经营上，这家公司是没有问题的。投资者一直担心，诟病的其实是两个非经营上的问题。&lt;/p&gt;&lt;p&gt;第一，美国的生物安全法，对跟中国部分公司合作做出限制，药明生物在这个提案中被点名。这个问题，从今年年初开始发酵，是今年药明生物股价暴跌的元凶。到当前，这个问题，基本接近盖棺定论了。简单的说，美国的司法体系，想要立一部法，需要分别通过众议院和参议院投票，并且两院需要就投票版本达成一致，最终交总统签字成为法律。所谓的生物安全法，在9月10日众议院投票中，以306票支持81票反对44票弃权通过，支持率71%。拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。在投票过程中，发生了激烈的辩论。本来预期毫无悬念，轻松通过的法案，其实并不像大多数人预期的那样。在共和党控制的众议院，投票尚且争议巨大，那么，到了民主党控制的参议院，会发生什么？9月25日，参议院更新了法案内容，其实，甚至连法案的名字都改了，现在叫做“禁止外国公司获取美国公民遗传信息法案”，在这部法案中，药明生物被除名，并且，法案内容聚焦于基因相关业务。这部法案，目前还没有进入投票环节，预期今年12月投票。9月28日，花旗召开了一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，应该具有权威性。该专家明确了一点，目前的法案，限制范围不包含医保！重要的事情重复一遍，不包含医保！并且，10月10日，参议院对提案出了一份细节补充报告，明确了不包含医保，只限制联邦直接采购。至此，我认为生物安全法基本可以翻篇了。且不说参议院版本连法案名字都改了，药明生物完全没有基因相关业务，哪怕就是通过众议院的版本，不包含医保，影响也是完全可控可量化的，用药明生物管理层的说法，影响收入2%左右。这个事情，自始至终就是一场闹剧，就是大选年用来吸引眼球的噱头。CXO行业，本质是帮助制药企业开发新药的，整个过程中，新药的IP完全属于制药公司。者根本不存在中美产业竞争的问题。拿这个行业做文章，我实在想不出对美帝有啥好处。非要说好处的化，唯一能想到的就是促使产业回流？但药明生物，已经在美国建厂了，不是已经帮你实现产业回流了？禁掉中国的CXO，可能对传统MNC影响不大，但对占据整个行业绝大多数的biotech，就是毁灭性打击。对这些只有一、两条管线的小公司来说，可靠性和效率就是生命线。全世界，你让他们去哪找替代产能？这不是要他们的命吗？所以，参议院的版本，给了八年过渡期，但八年以后，全世界，哪个地方能冒出这么多高素质的生产力来？如果强行这么搞，结果只有一个，就是放慢全球创新药的开发进度，这对全人类，都不是一个好消息。我实在想不出，美国的政客，如何才能在巨大的阻力下，推进这么个费力不讨好的法案。如果真的想搞中国的CXO产业链，何必搞立法这么复杂的一套，向华为一样，直接禁掉不好吗？大选年的政治作秀，随着大选尘埃落定，可以休矣！&lt;/p&gt;&lt;p&gt;第二，大股东高价大额减持的道德风险。不可否认，这个事情是客观存在的，但我实在不能理解，这有什么问题。上一轮，你们非要抱团赛道，把公司市值炒到5、6000亿，200倍PE，换任何一个理性的大股东，都会减持。何况，药明生物有自己的特殊性。当年，药明系从美股私有化退市，大股东是借了银团贷款的，实际上，他手里的股份，很大部分可以理解为银团的代持。你们把股价炒到一个匪夷所思的高度，大股东背后的金主要兑现，大股东除了减持，还能有啥办法？这根本就是合理的商业行为，跟其他无关。事实上，公司大股东李革，在药明生物任非执行董事，在公司一分钱薪酬都不领。我感觉，天天骂大股东高价减持的，就是上一轮无脑抱团赛道的傻缺，因为自己的愚蠢亏了钱在这里骂娘。这帮菜鸡在资本市场不亏钱，才是没有天理。&lt;/p&gt;&lt;p&gt;最后，看一下估值。2023年，公司归母净利润34亿RMB，经调整归母净利润47亿RMB，这里面主要的区别，是12.7亿股权激励费用。公司指引，今年经调整归母净利润个位数增长，大概算50亿RMB吧。扣除股权激励费用，大概37、8亿RMB。当前公司市值620亿港币，即使把股权激励全部算作公司费用，也就16、7PE。实际上呢，把股权激励全部算作费用也不完全合理，比方说，公司2023年的股权激励计划，发行的基础是40多港币，但当前公司股价16港币左右，其实对股东的摊薄，是要打对折还多的。&lt;/p&gt;&lt;p&gt;股东回报方面，2017年港股上市以来，公司从未有过现金分红。但是，公司分别于2021年12月，2022年9月，2023年6月，推出5亿美元，3亿美元和6亿美元的回购计划。前两次计划已足额回购注销，2023年的回购计划正在执行中。实际上，这公司的股东回报做得相当好了，上面讲过，公司一直在大额资本支出，伴随业绩高速增长，直到2022年，自由现金流才转正，但2021年底，公司就开始推出了大额回购计划。公司已经证明了不是嘴炮式回购，相信到今年底，2023年回购计划能足额进行。我们这么算，2022，2023，2024三年，公司合计归母净利润16.5亿美元，这三年，公司合计回购14亿美元，相当于净利润的85%拿出来回购股份了，这个股东回报力度，应该可以在全市场名列前茅了吧？事实上，药明生物大股东李革，在公司基本是甩手掌柜，公司的实际掌舵者是CEO陈智胜。陈博士2023年在公司领400万RMB的现金薪酬，9300万RMB的股权薪酬（当然，计价基础是40多港币/股），薪酬的绝大部分，都是股权。所以，这公司，管理层和小股东的股权一致性是非常好的。2024年中报，公司现金资产-有息负债为74亿RMB，处在净现金状态。考虑到自由现金流已经转正，随着未来业绩增长，资本支出降低会越来越多，公司是有足够的能力和意愿回报股东的。&lt;/p&gt;&lt;p&gt;总结一下，我看到的药明生物，基本面上，公司是所在行业最强的存在，地缘政治风险正在褪去，行业周期向上，公司收入和利润处在新一轮增长的起点，大股东没有道德风险，管理层和小股东股权一致性甚好，公司资产负债表强壮，有意愿，也有能力做好股东回报。二级市场上，公司股价从最高点到今年8月跌去93%，但事实上，在整个过程中，公司基本面没有发生显著的负向变化，就是说，跌掉的全都是估值。当前，即使按最严格的算法，公司PE16、7倍（这还是短期股价反弹60%以后的估值），未来几年，展望持续20%~30%的增长。&lt;/p&gt;&lt;p&gt;最后，我很喜欢这公司的愿景，“成为全球生物制药行业最高、最宽和最深的能力和技术平台，让天下没有难做的药，难治的病！”如果能够达成这个愿景，我相信，他绝不止当前678亿港币这点市值。&lt;/p&gt;&lt;p&gt;&lt;b&gt;当一个绝对的行业龙头，股价由于各种原因，跌残了以后，但基本面又出现强力正向驱动，经验和直觉告诉我，这意味着强劲的投资回报。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;特别感谢 &lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; ，本文借用了老兄很多观点。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>263</v>
       </c>
       <c r="E3" s="2" t="str">
-        <v>回复@药明生物3年10倍: 赞同对药明生物的判断//@药明生物3年10倍:回复@LTLyra:楼主非医药专业，有这么深刻的认知真是厉害呀。创新药的属性决定了，要么扶摇直上要么跌到泥土。可喜的是，目前的极端熊市、地缘局势、行业周期，让药明生物成了落难凤凰。但是，无论从目前漏斗订单（全球1/3在研生物药，超过一半被巨头收购的药物在公司做，足以证明技术水平），还是授权出去的45个双抗类药物的里程碑收入，都提供了未来五到十年巨大业绩支撑，目前的价格太难得了，中途无非是提案的事情颠簸一下，很快就修复了，向上十倍空间开启，坐稳扶好。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药明生物3年10倍" target="_blank"&gt;@药明生物3年10倍&lt;/a&gt;: 赞同对药明生物的判断//&lt;a href="https://xueqiu.com/n/药明生物3年10倍" target="_blank"&gt;@药明生物3年10倍&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/LTLyra" target="_blank"&gt;@LTLyra&lt;/a&gt;:楼主非医药专业，有这么深刻的认知真是厉害呀。创新药的属性决定了，要么扶摇直上要么跌到泥土。可喜的是，目前的极端熊市、地缘局势、行业周期，让药明生物成了落难凤凰。但是，无论从目前漏斗订单（全球1/3在研生物药，超过一半被巨头收购的药物在公司做，足以证明技术水平），还是授权出去的45个双抗类药物的里程碑收入，都提供了未来五到十年巨大业绩支撑，目前的价格太难得了，中途无非是提案的事情颠簸一下，很快就修复了，向上十倍空间开启，坐稳扶好。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="4">
@@ -513,7 +513,7 @@
         <v>163</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>回复@AI时间的玫瑰: 我是看好整个行业里的优势公司。药明生物，是大分子生物药一条龙服务公司，具备全球独一挡的竞争力。只要整个行业需求增长，药明生物就是最受益的那个。当全行业最优质公司被特殊事件打击，如果这个事，不能致死致残，只是伤及皮毛......//@AI时间的玫瑰:回复@LTLyra:YM不是CXO吗。看好的是创新药吧</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/AI时间的玫瑰" target="_blank"&gt;@AI时间的玫瑰&lt;/a&gt;: 我是看好整个行业里的优势公司。&lt;br/&gt;药明生物，是大分子生物药一条龙服务公司，具备全球独一挡的竞争力。只要整个行业需求增长，药明生物就是最受益的那个。&lt;br/&gt;当全行业最优质公司被特殊事件打击，如果这个事，不能致死致残，只是伤及皮毛......//&lt;a href="https://xueqiu.com/n/AI时间的玫瑰" target="_blank"&gt;@AI时间的玫瑰&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/LTLyra" target="_blank"&gt;@LTLyra&lt;/a&gt;:YM不是CXO吗。看好的是创新药吧</v>
       </c>
     </row>
     <row r="5">
@@ -530,7 +530,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>回复@时光如镜: 如果对面的打压不是过于极端，这个位置的药明生物确实是难得的投资标的//@时光如镜:回复@范俊青:创新药投资难度太大了，不如 好把握</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/时光如镜" target="_blank"&gt;@时光如镜&lt;/a&gt;: 如果对面的打压不是过于极端，这个位置的药明生物确实是难得的投资标的//&lt;a href="https://xueqiu.com/n/时光如镜" target="_blank"&gt;@时光如镜&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/范俊青" target="_blank"&gt;@范俊青&lt;/a&gt;:创新药投资难度太大了，不如&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 好把握</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="2" t="str">
-        <v>要不要吸取一直犹豫，导致康方生物仓位没买够的教训，提前把药明生物的仓位打上去？这是个问题，容我好好想想</v>
+        <v>要不要吸取一直犹豫，导致康方生物仓位没买够的教训，提前把药明生物的仓位打上去？&lt;br/&gt;这是个问题，容我好好想想&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_49.png?v=1" title="[抓狂]" alt="[抓狂]" height="24" /&gt;&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_49.png?v=1" title="[抓狂]" alt="[抓狂]" height="24" /&gt;&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_49.png?v=1" title="[抓狂]" alt="[抓狂]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="7">
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>必须要增加康方和药明的仓位了.........</v>
+        <v>&lt;p&gt;必须要增加康方和药明的仓位了.........&lt;/p&gt;</v>
       </c>
     </row>
     <row r="9">
@@ -687,7 +687,7 @@
         <v>1475</v>
       </c>
       <c r="E2" s="2" t="str">
-        <v>两年生物医药研究，从仿制药，到创新药，到医疗器械，最后一站，是医药外包服务（CXO）。看下来，国内的仿制药，可以直接回避了；创新药，核心逻辑是出海；医疗器械，看了半天，没看出感觉，暂时放弃；CXO，看对眼了，买成了核心持仓。对CXO行业，直接上结论吧。Ø  CXO是周期成长股。2019~2021年中，市场主要演绎了行业的成长特征，2021年中~2023年底，市场主要演绎了行业的周期属性。2024年到目前为止，市场演绎的是行业地缘政治风险。但从现在开始，地缘政治风险逐渐褪去，市场会再次演绎行业的成长属性。这是我对整个行业定性的判断Ø  CXO行业的周期属性跟生物医药行业的投融资强度强相关。生物医药行业的需求本身是无限的，这来源于人类本身对生命健康的无限追求。但生物医药行业的研发支出，却和两个因素相关。第一，生物医药行业本身的发展，只有在新一代技术持续被开发出来/重磅产品持续放量的加持下，行业赚到钱，才会加大投入。第二，资本市场外围环境，最重要的是生物医药公司二级市场估值。只有二级市场估值上升，一级市场看到赚钱的机会，行业才会热起来，资金不断投入，更多项目立项。而CXO行业的收入，就是生物医药行业研发支出的一部分。Ø  CXO行业的成长属性，来源于三个方面。第一，生物医药公司研发支出的自然增长。第二，CXO渗透率的提升。第三，在强大的竞争优势加持下，全球CXO需求向国内转移的趋势。我们观察一下当前的产业趋势。从最开始的小分子化学药，到多肽药物，然后，出现了靶点的概念，各种靶向药，单抗开始爆发，当前正给整个制药行业贡献大量的利润。再后来，XDC，双抗药物开始出现，以及更前沿的基因疗法，研发投入驱动着整个医药行业在不断的向前发展。二级市场，上一轮周期顶部发生在2021年，美股XBI指数，恒生医疗保健指数，都在2021年见顶，然后经历了三年寒冬。生物医药行业的寒冬，制药公司都在缩减研发，反应到CXO，就是订单减少，竞争加剧。随着美国进入降息周期，生物医药行业开始复苏，2023年四季度，随着降息预期渐浓，XBI指数大幅反弹，伴随着一级市场投融资逐步恢复。各种biotech公司拿到钱，研发重新开始活跃，CXO行业新签订单开始持续回暖。这一点不是推测，而是已经从上市CXO公司的二、三季报持续得到验证。生物医药这个行业，天然就是逆集中的，能不能研发出好药，跟是不是大型公司没啥关系，你永远都不知道，下一款最牛逼的药物，现在正在哪个小公司的实验室里。这个行业的趋势就是，一大群小型biotech公司疯狂研发，最终成功的那几个，被MNC收购。而小型biotech，为了提高研发的效率，恰恰最需要CXO的帮助。所以，整个行业CXO的渗透率不断提升。回到中国的CXO行业，我的观点是，这个行业，是中国工程师红利在生物医药行业的完美映射。我们已经在消费电子，新能源制造，电动汽车等领域完美演绎过这个逻辑。并且，现在，在生物医药行业，这个逻辑也开始逐步呈现，比如说，视野所及，实体瘤领域，下一代免疫疗法2.0的基石产品，就是康方生物的AK112+AK104，这可能是碾压K药，O药的存在；火热的ADC领域，呈现出一超多强的局面，一超就是日本的第一三共，凭借DS8201的威风，横扫行业，但多强几乎全部是国内的医药公司，在这个领域，欧美已经落后。血液瘤领域，百济，亚盛，传奇的几个核心产品，将是未来市场最重要的玩家。但生物医药研发，毕竟风险巨大，存在赌石的风险，很难押注成功的公司。而这个问题在CXO行业就不存在，我帮你们疯狂内卷，不管你们最后谁成了，我都能受益。CXO行业，不单纯是一个成本和效率的生意。这跟消费电子的代工公司完全不是一回事。一款新药，从最开始的靶点选择，到药物发现，到临床前药理毒理分析，到IND申报，到生产工艺开发，到临床实验支持，再到NDA/BLA申报，最终商业化生产。最优秀的CXO可以提供一站式的服务支持。这绝不是一个简单的代工可以比拟。必须有足够的技术积累，以及足够多的高素质人才，才能玩起这个游戏。纵观全球，中国是最好土壤，工程师红利又一次完美的体现。永远不用担心这个产业会向相对落后的东南亚转移，也不用担心这个行业向不承认/保护药物专利的印度转移。成本比我低的东南亚不会玩，会玩的欧美成本比我高，效率比我低。所以，中国CXO行业的市占率不断提升。这个行业，另外一个特点就是，一旦形成规模，壁垒极高。我们都知道，生物医药研发，九死一生，十年时间，十亿美金，10%的成功概率，做出一款新药。在这种情况下，对制药公司来说，合作伙伴的可靠性就及其重要，没有任何制药公司，尤其是占据这个行业绝大多数，一款药定生死的biotech，会把订单交给一个没有优秀往绩证明的新玩家，因为试错的成本实在是太高了！只有可靠性还不够，还需要足够的高效，我们都知道，如果两家公司开发同一个靶点的药物，如果最终疗效类似，那么，先上市一年和后上市一年，差别是几倍的市场份额。这些行业特性，都决定了CXO行业会向头部玩家逐步集中，建立起口碑和规模优势的头部玩家，护城河及其深厚。说完行业，再说具体的公司。从类别上来说，CXO可以分为小分子化学药CXO和大分子生物药CXO。具体到公司上，这行业分为两类，一类是药明系，一类是其他。这个结论，不接受辩驳，竞争优势就是这么明显。从投资的角度，要么你不投这个行业，要么，药明系就是绕不过去的存在。药明系，现在三家上市公司，药明康德，药明生物，药明合联。药明康德专注小分子化学药；药明生物专注大分子生物药；药明合联是从药明生物分拆上市的，现在依旧是药明生物的并表子公司，专注生物药的一个领域，XDC。由于药明合联聚焦的领域相对较窄，虽然当前正在风口，增速很快，但毕竟生物医药技术变更频繁，很难说未来是不是就会突然失速，且考虑到合联估值较高，且被生物并表，所以，想投资合联，直接投资生物就好。所以，投资药明系，基本就是选择康德和生物的区别。选择药明生物的理由主要有两个。Ø  从细分行业的角度，生物药优于化学药。当前层出不穷的新技术，大多数集中于生物药领域。行业增速上，大分子生物药比小分子化学药快一倍，这决定了聚焦生物药的CXO赛道更长，增速更快；生物制药的技术壁垒高于化学药，这决定了，聚焦生物药的CXO，对客户来说，具有更大的粘性。举两个例子佐证这个观点，第一，国内的头部CXO公司，不管是药明康德，康龙化成，还是凯莱英，都是聚焦于小分子化学药，只有药明生物聚焦于大分子生物药。别家不是不想做，而是药明生物太强大，没法竞争。第二，就在不久前，还传出一个新闻，某MNC在行业头部玩家三星生物生产的一款药，在最后阶段，由于生产工艺的问题，被FDA驳回上市申请。行业头部玩家尚且如此，这行业，基本没有任何新进入者的可能，最后就是几个寡头垄断格局。Ø  两家企业的发展阶段不同，如果说药明康德现在是壮年阶段，药明生物则处在青年阶段。这可以从两家公司的收入结构看出。CRDMO，R（研究），D（开发），M（生产）三个阶段，药明康德，更大比例的收入来M端。一个M端订单的收入是远高于一个R和D端订单的。而大多数M端的订单，都是从R和D端一路做下来的。所以，从这个角度，康德趋向于成熟期的企业，而生物还在成长期。虽然现在康德踩在减肥药爆发的风口，但未来，生物药的增长势头更加持久。从行业和公司的角度，选定药明生物，再来看看这家公司的基本面。贴几张公司的PPT就能知道他的历史战绩有多强。7、8年来，收入，毛利，经调整净利润都是50%~70%级别的复合增长，除了牛逼，没有第二个词形容了。但2023年以来，增速在明显放缓甚至倒退。这里面主要是两个方面因素影响。其一，新冠收入退坡。第二，全球生物医药行业投融资冰冻。但这两个因素，都在成为过去式。按公司指引，今年下半年，净利润同比会有20%~30%的增长。牛逼的往期业绩不能证明未来的投资价值。我们分析一下这家公司未来的增长潜力。在我看来，这公司未来有四重增长潜力。第一，全球生物医药行业回暖带来的自然增长。这一点，从CXO上市公司的新增订单可以得到印证。第二，公司独特的CRDMO一条龙服务商业模式进行到当前阶段带来的增长。药明生物订单总量是从2016年开始大爆发，从103个项目增长到当前的742个，这里面，绝大多少项目都是从早期开始，按照医药开发的进度和规律，未来这几年，这些项目中必然有一定比例能够陆续成药，进而转化成药明生物的商业化订单。所以，在相同项目数的情况下，药明生物的收入和利润会明显增厚，其实，这就是药明康德现在表现出来的状态。这个观点，可以从下面这张图得到佐证。说明一下这张图隐含的意义，PPQ在生物医药行业中指的是工艺性能确认(Process Performance Qualification)。药品商业化之前需要做PPQ，通常在商业化的前两年开始。就是产品准备上市的时候，要做一个工艺可重复性的研究。把这个工艺做三次，做完三次，如果是非常吻合，就有一个上市前的审核数据资料。提交给监管机构批准完了以后，这个产品就能上市。实际上，PPQ就是M端订单的前置指标。目前药明生物体内做PPQ的转化率是95%以上，做完PPQ留在体内继续商业化生成的留存率也是 95%以上，之所以有这么高的粘性，是因为做完了PPQ以后，如果到别的厂商去做的话，要重新做PPQ，不光花时间，有的复杂的药物还需要重新做三期临床数据，所以基本不存在PPQ之后再更换厂商的情况，如果有，只能说明甲方感觉对方技术质量不达标，这也是大分子CDMO 企业高粘性的原因，甲方爸爸不缺钱，妄图通过低价抢单不可能的，这个行业格局已经确定，就是头部几个玩家瓜分蛋糕。第三，随着产能利用率提升，公司毛利率会进入恢复性增长阶段，进而带动净利润增长。看下面这张图，2020年开始，公司都处在大资本开支时期，包括2024~2026年，公司依然指引每年资本开支50亿。三、四百亿的资本开支，全部用来投资新增产能，尤其是海外新增产能。全球双厂战略，是未来应对地缘政治风险。对地缘政治不敏感的客户，国内产能支持，对地缘政治敏感的客户，海外产能支持。新产能开始达产，叠加新订单增速放缓，自然限制产能上升，毛利率下降。实际上，药明生物当前的毛利率，比正常情况是低4、5个百分点的，反映到经调整归母净利润上，其实就是降低了15%~20%的经调整归母净利润。公司指引，随着产能利用率提升，未来毛利润逐年上升1个百分点，直到正常。这张图透露出来更重要的一条信息是，尽管资本支出高企，但2022年开始，公司已经开始实现了正向自由现金流，并且，公司指引，今年保持正向自由现金流。那么未来，在新增订单及老订单自然向后期转化的支持下，随着新产能逐步投产，净利润和自由现金流会出现什么样的变化，相信非常容易判断。第四，药明生物并不是一家简单的外包服务公司，他是有药物开发能力的！这是他独特的增长动力（当然，这个能力药明康德也有）。2023年，药明生物与 GSK 就多款创新 TCE 双抗/多抗达成许可协议，GSK将获得基于药明生物专利技术平台开发的一款处于临床前阶段T细胞接合器 （TCE）双特异性抗体的独家许可权，并基于该平台选择至多三款其他 TCE双特异性/多特异性抗体。药明生物将获得 4000 万美元首付款和最高达14 亿美元的里程碑付款以及基于净销售额的销售分成。2024年，默沙东7亿美金首付，13亿美金总包收购同润生物一款TCE双抗，该双抗基于药明生物独家技术研发，药明生物将有权收到部分首付款，里程碑付款及未来药品上市后的销售分成。药明生物确认，5亿RMB的付款将计入公司下半年收入。这两个，只是披露出来，较大规模的BD合作，这些年，药明生物基于自己的研发平台，还有很多未披露的BD合作，随着药物研发进展，这些授权出去的分子，必然有能成药的，这意味着，药明生物将在整个药物的开发和商业化周期都获得收入。这些收入，将逐步计入报表，成为利润。经营上，这家公司是没有问题的。投资者一直担心，诟病的其实是两个非经营上的问题。第一，美国的生物安全法，对跟中国部分公司合作做出限制，药明生物在这个提案中被点名。这个问题，从今年年初开始发酵，是今年药明生物股价暴跌的元凶。到当前，这个问题，基本接近盖棺定论了。简单的说，美国的司法体系，想要立一部法，需要分别通过众议院和参议院投票，并且两院需要就投票版本达成一致，最终交总统签字成为法律。所谓的生物安全法，在9月10日众议院投票中，以306票支持81票反对44票弃权通过，支持率71%。拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。在投票过程中，发生了激烈的辩论。本来预期毫无悬念，轻松通过的法案，其实并不像大多数人预期的那样。在共和党控制的众议院，投票尚且争议巨大，那么，到了民主党控制的参议院，会发生什么？9月25日，参议院更新了法案内容，其实，甚至连法案的名字都改了，现在叫做“禁止外国公司获取美国公民遗传信息法案”，在这部法案中，药明生物被除名，并且，法案内容聚焦于基因相关业务。这部法案，目前还没有进入投票环节，预期今年12月投票。9月28日，花旗召开了一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，应该具有权威性。该专家明确了一点，目前的法案，限制范围不包含医保！重要的事情重复一遍，不包含医保！并且，10月10日，参议院对提案出了一份细节补充报告，明确了不包含医保，只限制联邦直接采购。至此，我认为生物安全法基本可以翻篇了。且不说参议院版本连法案名字都改了，药明生物完全没有基因相关业务，哪怕就是通过众议院的版本，不包含医保，影响也是完全可控可量化的，用药明生物管理层的说法，影响收入2%左右。这个事情，自始至终就是一场闹剧，就是大选年用来吸引眼球的噱头。CXO行业，本质是帮助制药企业开发新药的，整个过程中，新药的IP完全属于制药公司。者根本不存在中美产业竞争的问题。拿这个行业做文章，我实在想不出对美帝有啥好处。非要说好处的化，唯一能想到的就是促使产业回流？但药明生物，已经在美国建厂了，不是已经帮你实现产业回流了？禁掉中国的CXO，可能对传统MNC影响不大，但对占据整个行业绝大多数的biotech，就是毁灭性打击。对这些只有一、两条管线的小公司来说，可靠性和效率就是生命线。全世界，你让他们去哪找替代产能？这不是要他们的命吗？所以，参议院的版本，给了八年过渡期，但八年以后，全世界，哪个地方能冒出这么多高素质的生产力来？如果强行这么搞，结果只有一个，就是放慢全球创新药的开发进度，这对全人类，都不是一个好消息。我实在想不出，美国的政客，如何才能在巨大的阻力下，推进这么个费力不讨好的法案。如果真的想搞中国的CXO产业链，何必搞立法这么复杂的一套，向华为一样，直接禁掉不好吗？大选年的政治作秀，随着大选尘埃落定，可以休矣！第二，大股东高价大额减持的道德风险。不可否认，这个事情是客观存在的，但我实在不能理解，这有什么问题。上一轮，你们非要抱团赛道，把公司市值炒到5、6000亿，200倍PE，换任何一个理性的大股东，都会减持。何况，药明生物有自己的特殊性。当年，药明系从美股私有化退市，大股东是借了银团贷款的，实际上，他手里的股份，很大部分可以理解为银团的代持。你们把股价炒到一个匪夷所思的高度，大股东背后的金主要兑现，大股东除了减持，还能有啥办法？这根本就是合理的商业行为，跟其他无关。事实上，公司大股东李革，在药明生物任非执行董事，在公司一分钱薪酬都不领。我感觉，天天骂大股东高价减持的，就是上一轮无脑抱团赛道的傻缺，因为自己的愚蠢亏了钱在这里骂娘。这帮菜鸡在资本市场不亏钱，才是没有天理。最后，看一下估值。2023年，公司归母净利润34亿RMB，经调整归母净利润47亿RMB，这里面主要的区别，是12.7亿股权激励费用。公司指引，今年经调整归母净利润个位数增长，大概算50亿RMB吧。扣除股权激励费用，大概37、8亿RMB。当前公司市值620亿港币，即使把股权激励全部算作公司费用，也就16、7PE。实际上呢，把股权激励全部算作费用也不完全合理，比方说，公司2023年的股权激励计划，发行的基础是40多港币，但当前公司股价16港币左右，其实对股东的摊薄，是要打对折还多的。股东回报方面，2017年港股上市以来，公司从未有过现金分红。但是，公司分别于2021年12月，2022年9月，2023年6月，推出5亿美元，3亿美元和6亿美元的回购计划。前两次计划已足额回购注销，2023年的回购计划正在执行中。实际上，这公司的股东回报做得相当好了，上面讲过，公司一直在大额资本支出，伴随业绩高速增长，直到2022年，自由现金流才转正，但2021年底，公司就开始推出了大额回购计划。公司已经证明了不是嘴炮式回购，相信到今年底，2023年回购计划能足额进行。我们这么算，2022，2023，2024三年，公司合计归母净利润16.5亿美元，这三年，公司合计回购14亿美元，相当于净利润的85%拿出来回购股份了，这个股东回报力度，应该可以在全市场名列前茅了吧？事实上，药明生物大股东李革，在公司基本是甩手掌柜，公司的实际掌舵者是CEO陈智胜。陈博士2023年在公司领400万RMB的现金薪酬，9300万RMB的股权薪酬（当然，计价基础是40多港币/股），薪酬的绝大部分，都是股权。所以，这公司，管理层和小股东的股权一致性是非常好的。2024年中报，公司现金资产-有息负债为74亿RMB，处在净现金状态。考虑到自由现金流已经转正，随着未来业绩增长，资本支出降低会越来越多，公司是有足够的能力和意愿回报股东的。总结一下，我看到的药明生物，基本面上，公司是所在行业最强的存在，地缘政治风险正在褪去，行业周期向上，公司收入和利润处在新一轮增长的起点，大股东没有道德风险，管理层和小股东股权一致性甚好，公司资产负债表强壮，有意愿，也有能力做好股东回报。二级市场上，公司股价从最高点到今年8月跌去93%，但事实上，在整个过程中，公司基本面没有发生显著的负向变化，就是说，跌掉的全都是估值。当前，即使按最严格的算法，公司PE16、7倍（这还是短期股价反弹60%以后的估值），未来几年，展望持续20%~30%的增长。最后，我很喜欢这公司的愿景，“成为全球生物制药行业最高、最宽和最深的能力和技术平台，让天下没有难做的药，难治的病！”如果能够达成这个愿景，我相信，他绝不止当前678亿港币这点市值。当一个绝对的行业龙头，股价由于各种原因，跌残了以后，但基本面又出现强力正向驱动，经验和直觉告诉我，这意味着强劲的投资回报。特别感谢 @金融街行藏 ，本文借用了老兄很多观点。</v>
+        <v>&lt;p&gt;两年生物医药研究，从仿制药，到创新药，到医疗器械，最后一站，是医药外包服务（CXO）。&lt;/p&gt;&lt;p&gt;看下来，国内的仿制药，可以直接回避了；创新药，核心逻辑是出海；医疗器械，看了半天，没看出感觉，暂时放弃；CXO，看对眼了，买成了核心持仓。&lt;/p&gt;&lt;p&gt;对CXO行业，直接上结论吧。&lt;/p&gt;&lt;p&gt;Ø  CXO是周期成长股。2019~2021年中，市场主要演绎了行业的成长特征，2021年中~2023年底，市场主要演绎了行业的周期属性。2024年到目前为止，市场演绎的是行业地缘政治风险。但从现在开始，地缘政治风险逐渐褪去，市场会再次演绎行业的成长属性。这是我对整个行业定性的判断&lt;/p&gt;&lt;p&gt;Ø  CXO行业的周期属性跟生物医药行业的投融资强度强相关。生物医药行业的需求本身是无限的，这来源于人类本身对生命健康的无限追求。但生物医药行业的研发支出，却和两个因素相关。第一，生物医药行业本身的发展，只有在新一代技术持续被开发出来/重磅产品持续放量的加持下，行业赚到钱，才会加大投入。第二，资本市场外围环境，最重要的是生物医药公司二级市场估值。只有二级市场估值上升，一级市场看到赚钱的机会，行业才会热起来，资金不断投入，更多项目立项。而CXO行业的收入，就是生物医药行业研发支出的一部分。&lt;/p&gt;&lt;p&gt;Ø  CXO行业的成长属性，来源于三个方面。第一，生物医药公司研发支出的自然增长。第二，CXO渗透率的提升。第三，在强大的竞争优势加持下，全球CXO需求向国内转移的趋势。&lt;/p&gt;&lt;p&gt;我们观察一下当前的产业趋势。从最开始的小分子化学药，到多肽药物，然后，出现了靶点的概念，各种靶向药，单抗开始爆发，当前正给整个制药行业贡献大量的利润。再后来，XDC，双抗药物开始出现，以及更前沿的基因疗法，研发投入驱动着整个医药行业在不断的向前发展。&lt;/p&gt;&lt;p&gt;二级市场，上一轮周期顶部发生在2021年，美股XBI指数，恒生医疗保健指数，都在2021年见顶，然后经历了三年寒冬。生物医药行业的寒冬，制药公司都在缩减研发，反应到CXO，就是订单减少，竞争加剧。随着美国进入降息周期，生物医药行业开始复苏，2023年四季度，随着降息预期渐浓，XBI指数大幅反弹，伴随着一级市场投融资逐步恢复。各种biotech公司拿到钱，研发重新开始活跃，CXO行业新签订单开始持续回暖。这一点不是推测，而是已经从上市CXO公司的二、三季报持续得到验证。&lt;/p&gt;&lt;p&gt;生物医药这个行业，天然就是逆集中的，能不能研发出好药，跟是不是大型公司没啥关系，你永远都不知道，下一款最牛逼的药物，现在正在哪个小公司的实验室里。这个行业的趋势就是，一大群小型biotech公司疯狂研发，最终成功的那几个，被MNC收购。而小型biotech，为了提高研发的效率，恰恰最需要CXO的帮助。所以，整个行业CXO的渗透率不断提升。&lt;/p&gt;&lt;p&gt;回到中国的CXO行业，我的观点是，&lt;b&gt;这个行业，是中国工程师红利在生物医药行业的完美映射。&lt;/b&gt;我们已经在消费电子，新能源制造，电动汽车等领域完美演绎过这个逻辑。并且，现在，在生物医药行业，这个逻辑也开始逐步呈现，比如说，视野所及，实体瘤领域，下一代免疫疗法2.0的基石产品，就是康方生物的AK112+AK104，这可能是碾压K药，O药的存在；火热的ADC领域，呈现出一超多强的局面，一超就是日本的第一三共，凭借DS8201的威风，横扫行业，但多强几乎全部是国内的医药公司，在这个领域，欧美已经落后。血液瘤领域，百济，亚盛，传奇的几个核心产品，将是未来市场最重要的玩家。但生物医药研发，毕竟风险巨大，存在赌石的风险，很难押注成功的公司。而这个问题在CXO行业就不存在，我帮你们疯狂内卷，不管你们最后谁成了，我都能受益。&lt;/p&gt;&lt;p&gt;CXO行业，不单纯是一个成本和效率的生意。这跟消费电子的代工公司完全不是一回事。一款新药，从最开始的靶点选择，到药物发现，到临床前药理毒理分析，到IND申报，到生产工艺开发，到临床实验支持，再到NDA/BLA申报，最终商业化生产。最优秀的CXO可以提供一站式的服务支持。这绝不是一个简单的代工可以比拟。必须有足够的技术积累，以及足够多的高素质人才，才能玩起这个游戏。纵观全球，中国是最好土壤，工程师红利又一次完美的体现。永远不用担心这个产业会向相对落后的东南亚转移，也不用担心这个行业向不承认/保护药物专利的印度转移。成本比我低的东南亚不会玩，会玩的欧美成本比我高，效率比我低。所以，中国CXO行业的市占率不断提升。&lt;/p&gt;&lt;p&gt;这个行业，另外一个特点就是，一旦形成规模，壁垒极高。我们都知道，生物医药研发，九死一生，十年时间，十亿美金，10%的成功概率，做出一款新药。在这种情况下，对制药公司来说，合作伙伴的可靠性就及其重要，没有任何制药公司，尤其是占据这个行业绝大多数，一款药定生死的biotech，会把订单交给一个没有优秀往绩证明的新玩家，因为试错的成本实在是太高了！只有可靠性还不够，还需要足够的高效，我们都知道，如果两家公司开发同一个靶点的药物，如果最终疗效类似，那么，先上市一年和后上市一年，差别是几倍的市场份额。这些行业特性，都决定了CXO行业会向头部玩家逐步集中，建立起口碑和规模优势的头部玩家，护城河及其深厚。&lt;/p&gt;&lt;p&gt;说完行业，再说具体的公司。&lt;/p&gt;&lt;p&gt;从类别上来说，CXO可以分为小分子化学药CXO和大分子生物药CXO。&lt;/p&gt;&lt;p&gt;具体到公司上，这行业分为两类，一类是药明系，一类是其他。这个结论，不接受辩驳，竞争优势就是这么明显。从投资的角度，要么你不投这个行业，要么，药明系就是绕不过去的存在。&lt;/p&gt;&lt;p&gt;药明系，现在三家上市公司，药明康德，药明生物，药明合联。药明康德专注小分子化学药；药明生物专注大分子生物药；药明合联是从药明生物分拆上市的，现在依旧是药明生物的并表子公司，专注生物药的一个领域，XDC。由于药明合联聚焦的领域相对较窄，虽然当前正在风口，增速很快，但毕竟生物医药技术变更频繁，很难说未来是不是就会突然失速，且考虑到合联估值较高，且被生物并表，所以，想投资合联，直接投资生物就好。&lt;/p&gt;&lt;p&gt;所以，投资药明系，基本就是选择康德和生物的区别。选择药明生物的理由主要有两个。&lt;/p&gt;&lt;p&gt;Ø  从细分行业的角度，生物药优于化学药。当前层出不穷的新技术，大多数集中于生物药领域。行业增速上，大分子生物药比小分子化学药快一倍，这决定了聚焦生物药的CXO赛道更长，增速更快；生物制药的技术壁垒高于化学药，这决定了，聚焦生物药的CXO，对客户来说，具有更大的粘性。举两个例子佐证这个观点，第一，国内的头部CXO公司，不管是药明康德，康龙化成，还是凯莱英，都是聚焦于小分子化学药，只有药明生物聚焦于大分子生物药。别家不是不想做，而是药明生物太强大，没法竞争。第二，就在不久前，还传出一个新闻，某MNC在行业头部玩家三星生物生产的一款药，在最后阶段，由于生产工艺的问题，被FDA驳回上市申请。行业头部玩家尚且如此，这行业，基本没有任何新进入者的可能，最后就是几个寡头垄断格局。&lt;/p&gt;&lt;p&gt;Ø  两家企业的发展阶段不同，如果说药明康德现在是壮年阶段，药明生物则处在青年阶段。这可以从两家公司的收入结构看出。CRDMO，R（研究），D（开发），M（生产）三个阶段，药明康德，更大比例的收入来M端。一个M端订单的收入是远高于一个R和D端订单的。而大多数M端的订单，都是从R和D端一路做下来的。所以，从这个角度，康德趋向于成熟期的企业，而生物还在成长期。虽然现在康德踩在减肥药爆发的风口，但未来，生物药的增长势头更加持久。&lt;/p&gt;&lt;p&gt;从行业和公司的角度，选定药明生物，再来看看这家公司的基本面。贴几张公司的PPT就能知道他的历史战绩有多强。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f191c39c733ac3fe3c237.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f191f95d75ac33fed0f14.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f192100274a833fe5031a.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;7、8年来，收入，毛利，经调整净利润都是50%~70%级别的复合增长，除了牛逼，没有第二个词形容了。但2023年以来，增速在明显放缓甚至倒退。这里面主要是两个方面因素影响。其一，新冠收入退坡。第二，全球生物医药行业投融资冰冻。但这两个因素，都在成为过去式。按公司指引，今年下半年，净利润同比会有20%~30%的增长。牛逼的往期业绩不能证明未来的投资价值。我们分析一下这家公司未来的增长潜力。在我看来，这公司未来有四重增长潜力。&lt;/p&gt;&lt;p&gt;第一，全球生物医药行业回暖带来的自然增长。这一点，从CXO上市公司的新增订单可以得到印证。&lt;/p&gt;&lt;p&gt;第二，公司独特的CRDMO一条龙服务商业模式进行到当前阶段带来的增长。药明生物订单总量是从2016年开始大爆发，从103个项目增长到当前的742个，这里面，绝大多少项目都是从早期开始，按照医药开发的进度和规律，未来这几年，这些项目中必然有一定比例能够陆续成药，进而转化成药明生物的商业化订单。所以，在相同项目数的情况下，药明生物的收入和利润会明显增厚，其实，这就是药明康德现在表现出来的状态。这个观点，可以从下面这张图得到佐证。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f192459a75ac43fd02c6d.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;说明一下这张图隐含的意义，PPQ在生物医药行业中指的是工艺性能确认(Process Performance Qualification)。药品商业化之前需要做PPQ，通常在商业化的前两年开始。就是产品准备上市的时候，要做一个工艺可重复性的研究。把这个工艺做三次，做完三次，如果是非常吻合，就有一个上市前的审核数据资料。提交给监管机构批准完了以后，这个产品就能上市。实际上，PPQ就是M端订单的前置指标。目前药明生物体内做PPQ的转化率是95%以上，做完PPQ留在体内继续商业化生成的留存率也是 95%以上，之所以有这么高的粘性，是因为做完了PPQ以后，如果到别的厂商去做的话，要重新做PPQ，不光花时间，有的复杂的药物还需要重新做三期临床数据，所以基本不存在PPQ之后再更换厂商的情况，如果有，只能说明甲方感觉对方技术质量不达标，这也是大分子CDMO 企业高粘性的原因，甲方爸爸不缺钱，妄图通过低价抢单不可能的，这个行业格局已经确定，就是头部几个玩家瓜分蛋糕。&lt;/p&gt;&lt;p&gt;第三，随着产能利用率提升，公司毛利率会进入恢复性增长阶段，进而带动净利润增长。看下面这张图，2020年开始，公司都处在大资本开支时期，包括2024~2026年，公司依然指引每年资本开支50亿。三、四百亿的资本开支，全部用来投资新增产能，尤其是海外新增产能。全球双厂战略，是未来应对地缘政治风险。对地缘政治不敏感的客户，国内产能支持，对地缘政治敏感的客户，海外产能支持。新产能开始达产，叠加新订单增速放缓，自然限制产能上升，毛利率下降。实际上，药明生物当前的毛利率，比正常情况是低4、5个百分点的，反映到经调整归母净利润上，其实就是降低了15%~20%的经调整归母净利润。公司指引，随着产能利用率提升，未来毛利润逐年上升1个百分点，直到正常。这张图透露出来更重要的一条信息是，尽管资本支出高企，但2022年开始，公司已经开始实现了正向自由现金流，并且，公司指引，今年保持正向自由现金流。那么未来，在新增订单及老订单自然向后期转化的支持下，随着新产能逐步投产，净利润和自由现金流会出现什么样的变化，相信非常容易判断。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f192808d72fc43fc66e35.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;第四，药明生物并不是一家简单的外包服务公司，他是有药物开发能力的！这是他独特的增长动力（当然，这个能力药明康德也有）。2023年，药明生物与 GSK 就多款创新 TCE 双抗/多抗达成许可协议，GSK将获得基于药明生物专利技术平台开发的一款处于临床前阶段T细胞接合器 （TCE）双特异性抗体的独家许可权，并基于该平台选择至多三款其他 TCE双特异性/多特异性抗体。药明生物将获得 4000 万美元首付款和最高达14 亿美元的里程碑付款以及基于净销售额的销售分成。2024年，默沙东7亿美金首付，13亿美金总包收购同润生物一款TCE双抗，该双抗基于药明生物独家技术研发，药明生物将有权收到部分首付款，里程碑付款及未来药品上市后的销售分成。药明生物确认，5亿RMB的付款将计入公司下半年收入。这两个，只是披露出来，较大规模的BD合作，这些年，药明生物基于自己的研发平台，还有很多未披露的BD合作，随着药物研发进展，这些授权出去的分子，必然有能成药的，这意味着，药明生物将在整个药物的开发和商业化周期都获得收入。这些收入，将逐步计入报表，成为利润。&lt;/p&gt;&lt;p&gt;经营上，这家公司是没有问题的。投资者一直担心，诟病的其实是两个非经营上的问题。&lt;/p&gt;&lt;p&gt;第一，美国的生物安全法，对跟中国部分公司合作做出限制，药明生物在这个提案中被点名。这个问题，从今年年初开始发酵，是今年药明生物股价暴跌的元凶。到当前，这个问题，基本接近盖棺定论了。简单的说，美国的司法体系，想要立一部法，需要分别通过众议院和参议院投票，并且两院需要就投票版本达成一致，最终交总统签字成为法律。所谓的生物安全法，在9月10日众议院投票中，以306票支持81票反对44票弃权通过，支持率71%。拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。在投票过程中，发生了激烈的辩论。本来预期毫无悬念，轻松通过的法案，其实并不像大多数人预期的那样。在共和党控制的众议院，投票尚且争议巨大，那么，到了民主党控制的参议院，会发生什么？9月25日，参议院更新了法案内容，其实，甚至连法案的名字都改了，现在叫做“禁止外国公司获取美国公民遗传信息法案”，在这部法案中，药明生物被除名，并且，法案内容聚焦于基因相关业务。这部法案，目前还没有进入投票环节，预期今年12月投票。9月28日，花旗召开了一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，应该具有权威性。该专家明确了一点，目前的法案，限制范围不包含医保！重要的事情重复一遍，不包含医保！并且，10月10日，参议院对提案出了一份细节补充报告，明确了不包含医保，只限制联邦直接采购。至此，我认为生物安全法基本可以翻篇了。且不说参议院版本连法案名字都改了，药明生物完全没有基因相关业务，哪怕就是通过众议院的版本，不包含医保，影响也是完全可控可量化的，用药明生物管理层的说法，影响收入2%左右。这个事情，自始至终就是一场闹剧，就是大选年用来吸引眼球的噱头。CXO行业，本质是帮助制药企业开发新药的，整个过程中，新药的IP完全属于制药公司。者根本不存在中美产业竞争的问题。拿这个行业做文章，我实在想不出对美帝有啥好处。非要说好处的化，唯一能想到的就是促使产业回流？但药明生物，已经在美国建厂了，不是已经帮你实现产业回流了？禁掉中国的CXO，可能对传统MNC影响不大，但对占据整个行业绝大多数的biotech，就是毁灭性打击。对这些只有一、两条管线的小公司来说，可靠性和效率就是生命线。全世界，你让他们去哪找替代产能？这不是要他们的命吗？所以，参议院的版本，给了八年过渡期，但八年以后，全世界，哪个地方能冒出这么多高素质的生产力来？如果强行这么搞，结果只有一个，就是放慢全球创新药的开发进度，这对全人类，都不是一个好消息。我实在想不出，美国的政客，如何才能在巨大的阻力下，推进这么个费力不讨好的法案。如果真的想搞中国的CXO产业链，何必搞立法这么复杂的一套，向华为一样，直接禁掉不好吗？大选年的政治作秀，随着大选尘埃落定，可以休矣！&lt;/p&gt;&lt;p&gt;第二，大股东高价大额减持的道德风险。不可否认，这个事情是客观存在的，但我实在不能理解，这有什么问题。上一轮，你们非要抱团赛道，把公司市值炒到5、6000亿，200倍PE，换任何一个理性的大股东，都会减持。何况，药明生物有自己的特殊性。当年，药明系从美股私有化退市，大股东是借了银团贷款的，实际上，他手里的股份，很大部分可以理解为银团的代持。你们把股价炒到一个匪夷所思的高度，大股东背后的金主要兑现，大股东除了减持，还能有啥办法？这根本就是合理的商业行为，跟其他无关。事实上，公司大股东李革，在药明生物任非执行董事，在公司一分钱薪酬都不领。我感觉，天天骂大股东高价减持的，就是上一轮无脑抱团赛道的傻缺，因为自己的愚蠢亏了钱在这里骂娘。这帮菜鸡在资本市场不亏钱，才是没有天理。&lt;/p&gt;&lt;p&gt;最后，看一下估值。2023年，公司归母净利润34亿RMB，经调整归母净利润47亿RMB，这里面主要的区别，是12.7亿股权激励费用。公司指引，今年经调整归母净利润个位数增长，大概算50亿RMB吧。扣除股权激励费用，大概37、8亿RMB。当前公司市值620亿港币，即使把股权激励全部算作公司费用，也就16、7PE。实际上呢，把股权激励全部算作费用也不完全合理，比方说，公司2023年的股权激励计划，发行的基础是40多港币，但当前公司股价16港币左右，其实对股东的摊薄，是要打对折还多的。&lt;/p&gt;&lt;p&gt;股东回报方面，2017年港股上市以来，公司从未有过现金分红。但是，公司分别于2021年12月，2022年9月，2023年6月，推出5亿美元，3亿美元和6亿美元的回购计划。前两次计划已足额回购注销，2023年的回购计划正在执行中。实际上，这公司的股东回报做得相当好了，上面讲过，公司一直在大额资本支出，伴随业绩高速增长，直到2022年，自由现金流才转正，但2021年底，公司就开始推出了大额回购计划。公司已经证明了不是嘴炮式回购，相信到今年底，2023年回购计划能足额进行。我们这么算，2022，2023，2024三年，公司合计归母净利润16.5亿美元，这三年，公司合计回购14亿美元，相当于净利润的85%拿出来回购股份了，这个股东回报力度，应该可以在全市场名列前茅了吧？事实上，药明生物大股东李革，在公司基本是甩手掌柜，公司的实际掌舵者是CEO陈智胜。陈博士2023年在公司领400万RMB的现金薪酬，9300万RMB的股权薪酬（当然，计价基础是40多港币/股），薪酬的绝大部分，都是股权。所以，这公司，管理层和小股东的股权一致性是非常好的。2024年中报，公司现金资产-有息负债为74亿RMB，处在净现金状态。考虑到自由现金流已经转正，随着未来业绩增长，资本支出降低会越来越多，公司是有足够的能力和意愿回报股东的。&lt;/p&gt;&lt;p&gt;总结一下，我看到的药明生物，基本面上，公司是所在行业最强的存在，地缘政治风险正在褪去，行业周期向上，公司收入和利润处在新一轮增长的起点，大股东没有道德风险，管理层和小股东股权一致性甚好，公司资产负债表强壮，有意愿，也有能力做好股东回报。二级市场上，公司股价从最高点到今年8月跌去93%，但事实上，在整个过程中，公司基本面没有发生显著的负向变化，就是说，跌掉的全都是估值。当前，即使按最严格的算法，公司PE16、7倍（这还是短期股价反弹60%以后的估值），未来几年，展望持续20%~30%的增长。&lt;/p&gt;&lt;p&gt;最后，我很喜欢这公司的愿景，“成为全球生物制药行业最高、最宽和最深的能力和技术平台，让天下没有难做的药，难治的病！”如果能够达成这个愿景，我相信，他绝不止当前678亿港币这点市值。&lt;/p&gt;&lt;p&gt;&lt;b&gt;当一个绝对的行业龙头，股价由于各种原因，跌残了以后，但基本面又出现强力正向驱动，经验和直觉告诉我，这意味着强劲的投资回报。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;特别感谢 &lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; ，本文借用了老兄很多观点。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="3">
@@ -721,7 +721,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>必须要增加康方和药明的仓位了.........</v>
+        <v>&lt;p&gt;必须要增加康方和药明的仓位了.........&lt;/p&gt;</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +738,7 @@
         <v>81</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>要不要吸取一直犹豫，导致康方生物仓位没买够的教训，提前把药明生物的仓位打上去？这是个问题，容我好好想想</v>
+        <v>要不要吸取一直犹豫，导致康方生物仓位没买够的教训，提前把药明生物的仓位打上去？&lt;br/&gt;这是个问题，容我好好想想&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_49.png?v=1" title="[抓狂]" alt="[抓狂]" height="24" /&gt;&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_49.png?v=1" title="[抓狂]" alt="[抓狂]" height="24" /&gt;&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_49.png?v=1" title="[抓狂]" alt="[抓狂]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="6">
@@ -789,7 +789,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>回复@药明生物3年10倍: 赞同对药明生物的判断//@药明生物3年10倍:回复@LTLyra:楼主非医药专业，有这么深刻的认知真是厉害呀。创新药的属性决定了，要么扶摇直上要么跌到泥土。可喜的是，目前的极端熊市、地缘局势、行业周期，让药明生物成了落难凤凰。但是，无论从目前漏斗订单（全球1/3在研生物药，超过一半被巨头收购的药物在公司做，足以证明技术水平），还是授权出去的45个双抗类药物的里程碑收入，都提供了未来五到十年巨大业绩支撑，目前的价格太难得了，中途无非是提案的事情颠簸一下，很快就修复了，向上十倍空间开启，坐稳扶好。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药明生物3年10倍" target="_blank"&gt;@药明生物3年10倍&lt;/a&gt;: 赞同对药明生物的判断//&lt;a href="https://xueqiu.com/n/药明生物3年10倍" target="_blank"&gt;@药明生物3年10倍&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/LTLyra" target="_blank"&gt;@LTLyra&lt;/a&gt;:楼主非医药专业，有这么深刻的认知真是厉害呀。创新药的属性决定了，要么扶摇直上要么跌到泥土。可喜的是，目前的极端熊市、地缘局势、行业周期，让药明生物成了落难凤凰。但是，无论从目前漏斗订单（全球1/3在研生物药，超过一半被巨头收购的药物在公司做，足以证明技术水平），还是授权出去的45个双抗类药物的里程碑收入，都提供了未来五到十年巨大业绩支撑，目前的价格太难得了，中途无非是提案的事情颠簸一下，很快就修复了，向上十倍空间开启，坐稳扶好。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="9">
@@ -806,7 +806,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="2" t="str">
-        <v>回复@AI时间的玫瑰: 我是看好整个行业里的优势公司。药明生物，是大分子生物药一条龙服务公司，具备全球独一挡的竞争力。只要整个行业需求增长，药明生物就是最受益的那个。当全行业最优质公司被特殊事件打击，如果这个事，不能致死致残，只是伤及皮毛......//@AI时间的玫瑰:回复@LTLyra:YM不是CXO吗。看好的是创新药吧</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/AI时间的玫瑰" target="_blank"&gt;@AI时间的玫瑰&lt;/a&gt;: 我是看好整个行业里的优势公司。&lt;br/&gt;药明生物，是大分子生物药一条龙服务公司，具备全球独一挡的竞争力。只要整个行业需求增长，药明生物就是最受益的那个。&lt;br/&gt;当全行业最优质公司被特殊事件打击，如果这个事，不能致死致残，只是伤及皮毛......//&lt;a href="https://xueqiu.com/n/AI时间的玫瑰" target="_blank"&gt;@AI时间的玫瑰&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/LTLyra" target="_blank"&gt;@LTLyra&lt;/a&gt;:YM不是CXO吗。看好的是创新药吧</v>
       </c>
     </row>
     <row r="10">
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="str">
-        <v>回复@时光如镜: 如果对面的打压不是过于极端，这个位置的药明生物确实是难得的投资标的//@时光如镜:回复@范俊青:创新药投资难度太大了，不如 好把握</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/时光如镜" target="_blank"&gt;@时光如镜&lt;/a&gt;: 如果对面的打压不是过于极端，这个位置的药明生物确实是难得的投资标的//&lt;a href="https://xueqiu.com/n/时光如镜" target="_blank"&gt;@时光如镜&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/范俊青" target="_blank"&gt;@范俊青&lt;/a&gt;:创新药投资难度太大了，不如&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 好把握</v>
       </c>
     </row>
   </sheetData>
